--- a/Dang-Vu-Duc/mon/temps-1.2/edt de Agathe Rabachou.xlsx
+++ b/Dang-Vu-Duc/mon/temps-1.2/edt de Agathe Rabachou.xlsx
@@ -97,7 +97,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill/>
     </fill>
@@ -233,6 +233,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea9999"/>
       </patternFill>
     </fill>
   </fills>
@@ -883,13 +888,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick"/>
+      <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thick"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -904,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1218,43 +1223,49 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1263,29 +1274,29 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1294,33 +1305,39 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1618,7 +1635,7 @@
     <row r="1" ht="12.95" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Ors</t>
+          <t>maj le 09/01/2024</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2027,80 +2044,80 @@
       <c r="D5" s="11" t="n">
         <v>45184</v>
       </c>
-      <c r="E5" s="147" t="n"/>
-      <c r="F5" s="148" t="n"/>
-      <c r="G5" s="149" t="inlineStr">
+      <c r="E5" s="151" t="n"/>
+      <c r="F5" s="152" t="n"/>
+      <c r="G5" s="153" t="inlineStr">
         <is>
           <t>Bonjour !
 (FB--LP)
 218</t>
         </is>
       </c>
-      <c r="H5" s="150" t="n"/>
-      <c r="I5" s="151" t="inlineStr">
+      <c r="H5" s="154" t="n"/>
+      <c r="I5" s="155" t="inlineStr">
         <is>
           <t>TC1 : Agilité
 (Florian Magnani)
 Visio/218</t>
         </is>
       </c>
-      <c r="J5" s="150" t="n"/>
-      <c r="K5" s="148" t="n"/>
-      <c r="L5" s="148" t="n"/>
-      <c r="M5" s="152" t="inlineStr">
+      <c r="J5" s="154" t="n"/>
+      <c r="K5" s="152" t="n"/>
+      <c r="L5" s="152" t="n"/>
+      <c r="M5" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N5" s="150" t="n"/>
-      <c r="O5" s="150" t="n"/>
-      <c r="P5" s="150" t="n"/>
-      <c r="Q5" s="153" t="n"/>
-      <c r="R5" s="148" t="n"/>
-      <c r="S5" s="148" t="n"/>
-      <c r="T5" s="148" t="n"/>
-      <c r="U5" s="147" t="n"/>
-      <c r="V5" s="148" t="n"/>
-      <c r="W5" s="148" t="n"/>
-      <c r="X5" s="148" t="n"/>
-      <c r="Y5" s="151" t="inlineStr">
+      <c r="N5" s="154" t="n"/>
+      <c r="O5" s="154" t="n"/>
+      <c r="P5" s="154" t="n"/>
+      <c r="Q5" s="157" t="n"/>
+      <c r="R5" s="152" t="n"/>
+      <c r="S5" s="152" t="n"/>
+      <c r="T5" s="152" t="n"/>
+      <c r="U5" s="151" t="n"/>
+      <c r="V5" s="152" t="n"/>
+      <c r="W5" s="152" t="n"/>
+      <c r="X5" s="152" t="n"/>
+      <c r="Y5" s="155" t="inlineStr">
         <is>
           <t>TC1 : gestion des sources
 (FB)
 210</t>
         </is>
       </c>
-      <c r="Z5" s="150" t="n"/>
-      <c r="AA5" s="148" t="n"/>
-      <c r="AB5" s="148" t="n"/>
-      <c r="AC5" s="147" t="n"/>
-      <c r="AD5" s="148" t="n"/>
-      <c r="AE5" s="154" t="n"/>
-      <c r="AF5" s="155" t="n"/>
-      <c r="AG5" s="156" t="n"/>
-      <c r="AH5" s="155" t="n"/>
-      <c r="AI5" s="148" t="n"/>
-      <c r="AJ5" s="148" t="n"/>
-      <c r="AK5" s="157" t="inlineStr">
+      <c r="Z5" s="154" t="n"/>
+      <c r="AA5" s="152" t="n"/>
+      <c r="AB5" s="152" t="n"/>
+      <c r="AC5" s="151" t="n"/>
+      <c r="AD5" s="152" t="n"/>
+      <c r="AE5" s="147" t="n"/>
+      <c r="AF5" s="148" t="n"/>
+      <c r="AG5" s="158" t="n"/>
+      <c r="AH5" s="148" t="n"/>
+      <c r="AI5" s="152" t="n"/>
+      <c r="AJ5" s="152" t="n"/>
+      <c r="AK5" s="159" t="inlineStr">
         <is>
           <t>TC1 : Service Design
 (Oresys)
 218</t>
         </is>
       </c>
-      <c r="AL5" s="150" t="n"/>
-      <c r="AM5" s="150" t="n"/>
-      <c r="AN5" s="150" t="n"/>
-      <c r="AO5" s="158" t="inlineStr">
+      <c r="AL5" s="154" t="n"/>
+      <c r="AM5" s="154" t="n"/>
+      <c r="AN5" s="154" t="n"/>
+      <c r="AO5" s="160" t="inlineStr">
         <is>
           <t>POK&amp;MON
 (FB-LP)
 218</t>
         </is>
       </c>
-      <c r="AP5" s="150" t="n"/>
-      <c r="AQ5" s="148" t="n"/>
-      <c r="AR5" s="148" t="n"/>
+      <c r="AP5" s="154" t="n"/>
+      <c r="AQ5" s="152" t="n"/>
+      <c r="AR5" s="152" t="n"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" s="84" t="n"/>
@@ -2113,62 +2130,62 @@
       <c r="D6" s="11" t="n">
         <v>45191</v>
       </c>
-      <c r="E6" s="147" t="n"/>
-      <c r="F6" s="148" t="n"/>
-      <c r="G6" s="148" t="n"/>
-      <c r="H6" s="148" t="n"/>
-      <c r="I6" s="151" t="inlineStr">
+      <c r="E6" s="151" t="n"/>
+      <c r="F6" s="152" t="n"/>
+      <c r="G6" s="152" t="n"/>
+      <c r="H6" s="152" t="n"/>
+      <c r="I6" s="155" t="inlineStr">
         <is>
           <t>TC1 : gestion des sources
 (FB)
 218</t>
         </is>
       </c>
-      <c r="J6" s="150" t="n"/>
-      <c r="K6" s="148" t="n"/>
-      <c r="L6" s="148" t="n"/>
-      <c r="M6" s="152" t="inlineStr">
+      <c r="J6" s="154" t="n"/>
+      <c r="K6" s="152" t="n"/>
+      <c r="L6" s="152" t="n"/>
+      <c r="M6" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N6" s="150" t="n"/>
-      <c r="O6" s="150" t="n"/>
-      <c r="P6" s="150" t="n"/>
-      <c r="Q6" s="151" t="inlineStr">
+      <c r="N6" s="154" t="n"/>
+      <c r="O6" s="154" t="n"/>
+      <c r="P6" s="154" t="n"/>
+      <c r="Q6" s="155" t="inlineStr">
         <is>
           <t>Lancement Projet 3A
 (FB - LP)
 218</t>
         </is>
       </c>
-      <c r="R6" s="150" t="n"/>
-      <c r="S6" s="150" t="n"/>
-      <c r="T6" s="150" t="n"/>
-      <c r="U6" s="147" t="n"/>
-      <c r="V6" s="159" t="n"/>
-      <c r="W6" s="155" t="n"/>
-      <c r="X6" s="155" t="n"/>
-      <c r="Y6" s="156" t="n"/>
-      <c r="Z6" s="155" t="n"/>
-      <c r="AA6" s="155" t="n"/>
-      <c r="AB6" s="148" t="n"/>
-      <c r="AC6" s="147" t="n"/>
-      <c r="AD6" s="154" t="n"/>
-      <c r="AE6" s="155" t="n"/>
-      <c r="AF6" s="155" t="n"/>
-      <c r="AG6" s="156" t="n"/>
-      <c r="AH6" s="155" t="n"/>
-      <c r="AI6" s="155" t="n"/>
-      <c r="AJ6" s="148" t="n"/>
-      <c r="AK6" s="147" t="n"/>
-      <c r="AL6" s="148" t="n"/>
-      <c r="AM6" s="148" t="n"/>
-      <c r="AN6" s="148" t="n"/>
-      <c r="AO6" s="153" t="n"/>
-      <c r="AP6" s="148" t="n"/>
-      <c r="AQ6" s="148" t="n"/>
-      <c r="AR6" s="148" t="n"/>
+      <c r="R6" s="154" t="n"/>
+      <c r="S6" s="154" t="n"/>
+      <c r="T6" s="154" t="n"/>
+      <c r="U6" s="151" t="n"/>
+      <c r="V6" s="161" t="n"/>
+      <c r="W6" s="148" t="n"/>
+      <c r="X6" s="148" t="n"/>
+      <c r="Y6" s="158" t="n"/>
+      <c r="Z6" s="148" t="n"/>
+      <c r="AA6" s="148" t="n"/>
+      <c r="AB6" s="152" t="n"/>
+      <c r="AC6" s="151" t="n"/>
+      <c r="AD6" s="147" t="n"/>
+      <c r="AE6" s="148" t="n"/>
+      <c r="AF6" s="148" t="n"/>
+      <c r="AG6" s="158" t="n"/>
+      <c r="AH6" s="148" t="n"/>
+      <c r="AI6" s="148" t="n"/>
+      <c r="AJ6" s="152" t="n"/>
+      <c r="AK6" s="151" t="n"/>
+      <c r="AL6" s="152" t="n"/>
+      <c r="AM6" s="152" t="n"/>
+      <c r="AN6" s="152" t="n"/>
+      <c r="AO6" s="157" t="n"/>
+      <c r="AP6" s="152" t="n"/>
+      <c r="AQ6" s="152" t="n"/>
+      <c r="AR6" s="152" t="n"/>
     </row>
     <row r="7" ht="40" customHeight="1">
       <c r="A7" s="84" t="n"/>
@@ -2181,39 +2198,39 @@
       <c r="D7" s="11" t="n">
         <v>45198</v>
       </c>
-      <c r="E7" s="147" t="n"/>
-      <c r="F7" s="160" t="inlineStr">
+      <c r="E7" s="151" t="n"/>
+      <c r="F7" s="162" t="inlineStr">
         <is>
           <t>Numérique &amp; Travail
 (Vincent Mandinaud)
 217 (matin) &amp; 219 (apres-midi)</t>
         </is>
       </c>
-      <c r="G7" s="150" t="n"/>
-      <c r="H7" s="150" t="n"/>
-      <c r="I7" s="161" t="n"/>
-      <c r="J7" s="150" t="n"/>
-      <c r="K7" s="150" t="n"/>
-      <c r="L7" s="148" t="n"/>
-      <c r="M7" s="152" t="inlineStr">
+      <c r="G7" s="154" t="n"/>
+      <c r="H7" s="154" t="n"/>
+      <c r="I7" s="163" t="n"/>
+      <c r="J7" s="154" t="n"/>
+      <c r="K7" s="154" t="n"/>
+      <c r="L7" s="152" t="n"/>
+      <c r="M7" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N7" s="150" t="n"/>
-      <c r="O7" s="150" t="n"/>
-      <c r="P7" s="150" t="n"/>
-      <c r="Q7" s="162" t="inlineStr">
+      <c r="N7" s="154" t="n"/>
+      <c r="O7" s="154" t="n"/>
+      <c r="P7" s="154" t="n"/>
+      <c r="Q7" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R7" s="150" t="n"/>
-      <c r="S7" s="150" t="n"/>
-      <c r="T7" s="150" t="n"/>
-      <c r="U7" s="147" t="n"/>
-      <c r="V7" s="148" t="n"/>
-      <c r="W7" s="163" t="inlineStr">
+      <c r="R7" s="154" t="n"/>
+      <c r="S7" s="154" t="n"/>
+      <c r="T7" s="154" t="n"/>
+      <c r="U7" s="151" t="n"/>
+      <c r="V7" s="152" t="n"/>
+      <c r="W7" s="165" t="inlineStr">
         <is>
           <t>point POK sprint 1
 choix projets
@@ -2221,45 +2238,45 @@
 222</t>
         </is>
       </c>
-      <c r="X7" s="150" t="n"/>
-      <c r="Y7" s="164" t="inlineStr">
+      <c r="X7" s="154" t="n"/>
+      <c r="Y7" s="166" t="inlineStr">
         <is>
           <t>prez MON 1
 (FB-FM-LP)
 218</t>
         </is>
       </c>
-      <c r="Z7" s="150" t="n"/>
-      <c r="AA7" s="148" t="n"/>
-      <c r="AB7" s="148" t="n"/>
-      <c r="AC7" s="147" t="n"/>
-      <c r="AD7" s="154" t="n"/>
-      <c r="AE7" s="155" t="n"/>
-      <c r="AF7" s="155" t="n"/>
-      <c r="AG7" s="165" t="inlineStr">
+      <c r="Z7" s="154" t="n"/>
+      <c r="AA7" s="152" t="n"/>
+      <c r="AB7" s="152" t="n"/>
+      <c r="AC7" s="151" t="n"/>
+      <c r="AD7" s="147" t="n"/>
+      <c r="AE7" s="148" t="n"/>
+      <c r="AF7" s="148" t="n"/>
+      <c r="AG7" s="167" t="inlineStr">
         <is>
           <t>Eco-système digital
 Laetitia PIET
 218</t>
         </is>
       </c>
-      <c r="AH7" s="150" t="n"/>
-      <c r="AI7" s="148" t="n"/>
-      <c r="AJ7" s="148" t="n"/>
-      <c r="AK7" s="147" t="n"/>
-      <c r="AL7" s="149" t="inlineStr">
+      <c r="AH7" s="154" t="n"/>
+      <c r="AI7" s="152" t="n"/>
+      <c r="AJ7" s="152" t="n"/>
+      <c r="AK7" s="151" t="n"/>
+      <c r="AL7" s="153" t="inlineStr">
         <is>
           <t>TC1 : Agilité
 (Oresys)
 216</t>
         </is>
       </c>
-      <c r="AM7" s="150" t="n"/>
-      <c r="AN7" s="150" t="n"/>
-      <c r="AO7" s="156" t="n"/>
-      <c r="AP7" s="155" t="n"/>
-      <c r="AQ7" s="155" t="n"/>
-      <c r="AR7" s="148" t="n"/>
+      <c r="AM7" s="154" t="n"/>
+      <c r="AN7" s="154" t="n"/>
+      <c r="AO7" s="158" t="n"/>
+      <c r="AP7" s="148" t="n"/>
+      <c r="AQ7" s="148" t="n"/>
+      <c r="AR7" s="152" t="n"/>
     </row>
     <row r="8" ht="40" customHeight="1">
       <c r="A8" s="84" t="n"/>
@@ -2272,78 +2289,78 @@
       <c r="D8" s="11" t="n">
         <v>45205</v>
       </c>
-      <c r="E8" s="147" t="n"/>
-      <c r="F8" s="149" t="inlineStr">
+      <c r="E8" s="151" t="n"/>
+      <c r="F8" s="153" t="inlineStr">
         <is>
           <t>TC1 : Agilité
 (Oresys)
 217</t>
         </is>
       </c>
-      <c r="G8" s="150" t="n"/>
-      <c r="H8" s="150" t="n"/>
-      <c r="I8" s="151" t="inlineStr">
+      <c r="G8" s="154" t="n"/>
+      <c r="H8" s="154" t="n"/>
+      <c r="I8" s="155" t="inlineStr">
         <is>
           <t>TC1 : Agilité
 (Oresys)
 217</t>
         </is>
       </c>
-      <c r="J8" s="150" t="n"/>
-      <c r="K8" s="150" t="n"/>
-      <c r="L8" s="148" t="n"/>
-      <c r="M8" s="152" t="inlineStr">
+      <c r="J8" s="154" t="n"/>
+      <c r="K8" s="154" t="n"/>
+      <c r="L8" s="152" t="n"/>
+      <c r="M8" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N8" s="150" t="n"/>
-      <c r="O8" s="150" t="n"/>
-      <c r="P8" s="150" t="n"/>
-      <c r="Q8" s="162" t="inlineStr">
+      <c r="N8" s="154" t="n"/>
+      <c r="O8" s="154" t="n"/>
+      <c r="P8" s="154" t="n"/>
+      <c r="Q8" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R8" s="150" t="n"/>
-      <c r="S8" s="150" t="n"/>
-      <c r="T8" s="150" t="n"/>
-      <c r="U8" s="147" t="n"/>
-      <c r="V8" s="166" t="inlineStr">
+      <c r="R8" s="154" t="n"/>
+      <c r="S8" s="154" t="n"/>
+      <c r="T8" s="154" t="n"/>
+      <c r="U8" s="151" t="n"/>
+      <c r="V8" s="168" t="inlineStr">
         <is>
           <t>Ux Design et Expression besoin
 (Mickael Lavallée)
 218</t>
         </is>
       </c>
-      <c r="W8" s="150" t="n"/>
-      <c r="X8" s="150" t="n"/>
-      <c r="Y8" s="165" t="inlineStr">
+      <c r="W8" s="154" t="n"/>
+      <c r="X8" s="154" t="n"/>
+      <c r="Y8" s="167" t="inlineStr">
         <is>
           <t>Eco-système digital
 (Nicolas Vallée -Wavestone) 
 218</t>
         </is>
       </c>
-      <c r="Z8" s="150" t="n"/>
-      <c r="AA8" s="150" t="n"/>
-      <c r="AB8" s="150" t="n"/>
-      <c r="AC8" s="147" t="n"/>
-      <c r="AD8" s="154" t="n"/>
-      <c r="AE8" s="155" t="n"/>
-      <c r="AF8" s="155" t="n"/>
-      <c r="AG8" s="153" t="n"/>
-      <c r="AH8" s="148" t="n"/>
-      <c r="AI8" s="148" t="n"/>
-      <c r="AJ8" s="148" t="n"/>
-      <c r="AK8" s="147" t="n"/>
-      <c r="AL8" s="148" t="n"/>
-      <c r="AM8" s="148" t="n"/>
-      <c r="AN8" s="148" t="n"/>
-      <c r="AO8" s="167" t="n"/>
-      <c r="AP8" s="155" t="n"/>
-      <c r="AQ8" s="155" t="n"/>
-      <c r="AR8" s="148" t="n"/>
+      <c r="Z8" s="154" t="n"/>
+      <c r="AA8" s="154" t="n"/>
+      <c r="AB8" s="154" t="n"/>
+      <c r="AC8" s="151" t="n"/>
+      <c r="AD8" s="147" t="n"/>
+      <c r="AE8" s="148" t="n"/>
+      <c r="AF8" s="148" t="n"/>
+      <c r="AG8" s="157" t="n"/>
+      <c r="AH8" s="152" t="n"/>
+      <c r="AI8" s="152" t="n"/>
+      <c r="AJ8" s="152" t="n"/>
+      <c r="AK8" s="151" t="n"/>
+      <c r="AL8" s="152" t="n"/>
+      <c r="AM8" s="152" t="n"/>
+      <c r="AN8" s="152" t="n"/>
+      <c r="AO8" s="169" t="n"/>
+      <c r="AP8" s="148" t="n"/>
+      <c r="AQ8" s="148" t="n"/>
+      <c r="AR8" s="152" t="n"/>
     </row>
     <row r="9" ht="40" customHeight="1">
       <c r="A9" s="84" t="n"/>
@@ -2356,78 +2373,78 @@
       <c r="D9" s="11" t="n">
         <v>45212</v>
       </c>
-      <c r="E9" s="147" t="n"/>
-      <c r="F9" s="148" t="n"/>
-      <c r="G9" s="148" t="n"/>
-      <c r="H9" s="148" t="n"/>
-      <c r="I9" s="153" t="n"/>
-      <c r="J9" s="148" t="n"/>
-      <c r="K9" s="148" t="n"/>
-      <c r="L9" s="148" t="n"/>
-      <c r="M9" s="152" t="inlineStr">
+      <c r="E9" s="151" t="n"/>
+      <c r="F9" s="152" t="n"/>
+      <c r="G9" s="152" t="n"/>
+      <c r="H9" s="152" t="n"/>
+      <c r="I9" s="157" t="n"/>
+      <c r="J9" s="152" t="n"/>
+      <c r="K9" s="152" t="n"/>
+      <c r="L9" s="152" t="n"/>
+      <c r="M9" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N9" s="150" t="n"/>
-      <c r="O9" s="150" t="n"/>
-      <c r="P9" s="150" t="n"/>
-      <c r="Q9" s="162" t="inlineStr">
+      <c r="N9" s="154" t="n"/>
+      <c r="O9" s="154" t="n"/>
+      <c r="P9" s="154" t="n"/>
+      <c r="Q9" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R9" s="150" t="n"/>
-      <c r="S9" s="150" t="n"/>
-      <c r="T9" s="150" t="n"/>
-      <c r="U9" s="147" t="n"/>
-      <c r="V9" s="166" t="inlineStr">
+      <c r="R9" s="154" t="n"/>
+      <c r="S9" s="154" t="n"/>
+      <c r="T9" s="154" t="n"/>
+      <c r="U9" s="151" t="n"/>
+      <c r="V9" s="168" t="inlineStr">
         <is>
           <t>Ux Design et Expression besoin
 (Mickael Lavallée)
 218</t>
         </is>
       </c>
-      <c r="W9" s="150" t="n"/>
-      <c r="X9" s="150" t="n"/>
-      <c r="Y9" s="165" t="inlineStr">
+      <c r="W9" s="154" t="n"/>
+      <c r="X9" s="154" t="n"/>
+      <c r="Y9" s="167" t="inlineStr">
         <is>
           <t>Eco-système digital
 (Eda Nano)- 14h-17h45
 218</t>
         </is>
       </c>
-      <c r="Z9" s="150" t="n"/>
-      <c r="AA9" s="150" t="n"/>
-      <c r="AB9" s="150" t="n"/>
-      <c r="AC9" s="147" t="n"/>
-      <c r="AD9" s="159" t="n"/>
-      <c r="AE9" s="155" t="n"/>
-      <c r="AF9" s="155" t="n"/>
-      <c r="AG9" s="165" t="inlineStr">
+      <c r="Z9" s="154" t="n"/>
+      <c r="AA9" s="154" t="n"/>
+      <c r="AB9" s="154" t="n"/>
+      <c r="AC9" s="151" t="n"/>
+      <c r="AD9" s="161" t="n"/>
+      <c r="AE9" s="148" t="n"/>
+      <c r="AF9" s="148" t="n"/>
+      <c r="AG9" s="167" t="inlineStr">
         <is>
           <t>Eco-système digital
 (Eda Nano)- 14h-17h45
 217</t>
         </is>
       </c>
-      <c r="AH9" s="150" t="n"/>
-      <c r="AI9" s="150" t="n"/>
-      <c r="AJ9" s="150" t="n"/>
-      <c r="AK9" s="147" t="n"/>
-      <c r="AL9" s="166" t="inlineStr">
+      <c r="AH9" s="154" t="n"/>
+      <c r="AI9" s="154" t="n"/>
+      <c r="AJ9" s="154" t="n"/>
+      <c r="AK9" s="151" t="n"/>
+      <c r="AL9" s="168" t="inlineStr">
         <is>
           <t>Ux Design et Expression besoin
 (Mickael Lavallée)
 217</t>
         </is>
       </c>
-      <c r="AM9" s="150" t="n"/>
-      <c r="AN9" s="150" t="n"/>
-      <c r="AO9" s="156" t="n"/>
-      <c r="AP9" s="155" t="n"/>
-      <c r="AQ9" s="155" t="n"/>
-      <c r="AR9" s="148" t="n"/>
+      <c r="AM9" s="154" t="n"/>
+      <c r="AN9" s="154" t="n"/>
+      <c r="AO9" s="158" t="n"/>
+      <c r="AP9" s="148" t="n"/>
+      <c r="AQ9" s="148" t="n"/>
+      <c r="AR9" s="152" t="n"/>
     </row>
     <row r="10" ht="40" customHeight="1">
       <c r="A10" s="84" t="n"/>
@@ -2440,84 +2457,84 @@
       <c r="D10" s="11" t="n">
         <v>45219</v>
       </c>
-      <c r="E10" s="147" t="n"/>
-      <c r="F10" s="160" t="inlineStr">
+      <c r="E10" s="151" t="n"/>
+      <c r="F10" s="162" t="inlineStr">
         <is>
           <t>Numérique &amp; Travail
 (Manon Keusch-Bessard)
 218</t>
         </is>
       </c>
-      <c r="G10" s="150" t="n"/>
-      <c r="H10" s="150" t="n"/>
-      <c r="I10" s="161" t="n"/>
-      <c r="J10" s="150" t="n"/>
-      <c r="K10" s="150" t="n"/>
-      <c r="L10" s="148" t="n"/>
-      <c r="M10" s="152" t="inlineStr">
+      <c r="G10" s="154" t="n"/>
+      <c r="H10" s="154" t="n"/>
+      <c r="I10" s="163" t="n"/>
+      <c r="J10" s="154" t="n"/>
+      <c r="K10" s="154" t="n"/>
+      <c r="L10" s="152" t="n"/>
+      <c r="M10" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N10" s="150" t="n"/>
-      <c r="O10" s="150" t="n"/>
-      <c r="P10" s="150" t="n"/>
-      <c r="Q10" s="162" t="inlineStr">
+      <c r="N10" s="154" t="n"/>
+      <c r="O10" s="154" t="n"/>
+      <c r="P10" s="154" t="n"/>
+      <c r="Q10" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R10" s="150" t="n"/>
-      <c r="S10" s="150" t="n"/>
-      <c r="T10" s="150" t="n"/>
-      <c r="U10" s="147" t="n"/>
-      <c r="V10" s="148" t="n"/>
-      <c r="W10" s="168" t="inlineStr">
+      <c r="R10" s="154" t="n"/>
+      <c r="S10" s="154" t="n"/>
+      <c r="T10" s="154" t="n"/>
+      <c r="U10" s="151" t="n"/>
+      <c r="V10" s="152" t="n"/>
+      <c r="W10" s="170" t="inlineStr">
         <is>
           <t>prez MON 2
 (FM)
 218</t>
         </is>
       </c>
-      <c r="X10" s="150" t="n"/>
-      <c r="Y10" s="158" t="inlineStr">
+      <c r="X10" s="154" t="n"/>
+      <c r="Y10" s="160" t="inlineStr">
         <is>
           <t>prez POK
 (FB-FM)
 Labus 234</t>
         </is>
       </c>
-      <c r="Z10" s="150" t="n"/>
-      <c r="AA10" s="149" t="inlineStr">
+      <c r="Z10" s="154" t="n"/>
+      <c r="AA10" s="153" t="inlineStr">
         <is>
           <t>Débrief
 (FB-FM-LP)
 XXX</t>
         </is>
       </c>
-      <c r="AB10" s="148" t="n"/>
-      <c r="AC10" s="147" t="n"/>
-      <c r="AD10" s="154" t="n"/>
-      <c r="AE10" s="155" t="n"/>
-      <c r="AF10" s="155" t="n"/>
-      <c r="AG10" s="153" t="n"/>
-      <c r="AH10" s="148" t="n"/>
-      <c r="AI10" s="148" t="n"/>
-      <c r="AJ10" s="148" t="n"/>
-      <c r="AK10" s="147" t="n"/>
-      <c r="AL10" s="166" t="inlineStr">
+      <c r="AB10" s="152" t="n"/>
+      <c r="AC10" s="151" t="n"/>
+      <c r="AD10" s="147" t="n"/>
+      <c r="AE10" s="148" t="n"/>
+      <c r="AF10" s="148" t="n"/>
+      <c r="AG10" s="157" t="n"/>
+      <c r="AH10" s="152" t="n"/>
+      <c r="AI10" s="152" t="n"/>
+      <c r="AJ10" s="152" t="n"/>
+      <c r="AK10" s="151" t="n"/>
+      <c r="AL10" s="168" t="inlineStr">
         <is>
           <t>Ux Design et Expression besoin
 (Mickael Lavallée)
 XXX</t>
         </is>
       </c>
-      <c r="AM10" s="150" t="n"/>
-      <c r="AN10" s="150" t="n"/>
-      <c r="AO10" s="156" t="n"/>
-      <c r="AP10" s="155" t="n"/>
-      <c r="AQ10" s="155" t="n"/>
-      <c r="AR10" s="148" t="n"/>
+      <c r="AM10" s="154" t="n"/>
+      <c r="AN10" s="154" t="n"/>
+      <c r="AO10" s="158" t="n"/>
+      <c r="AP10" s="148" t="n"/>
+      <c r="AQ10" s="148" t="n"/>
+      <c r="AR10" s="152" t="n"/>
     </row>
     <row r="11" ht="40" customHeight="1">
       <c r="A11" s="84" t="n"/>
@@ -2528,50 +2545,50 @@
       <c r="D11" s="11" t="n">
         <v>45226</v>
       </c>
-      <c r="E11" s="169" t="inlineStr">
+      <c r="E11" s="171" t="inlineStr">
         <is>
           <t>filière métier</t>
         </is>
       </c>
-      <c r="F11" s="150" t="n"/>
-      <c r="G11" s="150" t="n"/>
-      <c r="H11" s="150" t="n"/>
-      <c r="I11" s="161" t="n"/>
-      <c r="J11" s="150" t="n"/>
-      <c r="K11" s="150" t="n"/>
-      <c r="L11" s="150" t="n"/>
-      <c r="M11" s="170" t="n"/>
-      <c r="N11" s="150" t="n"/>
-      <c r="O11" s="150" t="n"/>
-      <c r="P11" s="150" t="n"/>
-      <c r="Q11" s="161" t="n"/>
-      <c r="R11" s="150" t="n"/>
-      <c r="S11" s="150" t="n"/>
-      <c r="T11" s="150" t="n"/>
-      <c r="U11" s="170" t="n"/>
-      <c r="V11" s="150" t="n"/>
-      <c r="W11" s="150" t="n"/>
-      <c r="X11" s="150" t="n"/>
-      <c r="Y11" s="161" t="n"/>
-      <c r="Z11" s="150" t="n"/>
-      <c r="AA11" s="150" t="n"/>
-      <c r="AB11" s="150" t="n"/>
-      <c r="AC11" s="170" t="n"/>
-      <c r="AD11" s="150" t="n"/>
-      <c r="AE11" s="150" t="n"/>
-      <c r="AF11" s="150" t="n"/>
-      <c r="AG11" s="161" t="n"/>
-      <c r="AH11" s="150" t="n"/>
-      <c r="AI11" s="150" t="n"/>
-      <c r="AJ11" s="150" t="n"/>
-      <c r="AK11" s="170" t="n"/>
-      <c r="AL11" s="150" t="n"/>
-      <c r="AM11" s="150" t="n"/>
-      <c r="AN11" s="150" t="n"/>
-      <c r="AO11" s="161" t="n"/>
-      <c r="AP11" s="150" t="n"/>
-      <c r="AQ11" s="150" t="n"/>
-      <c r="AR11" s="150" t="n"/>
+      <c r="F11" s="154" t="n"/>
+      <c r="G11" s="154" t="n"/>
+      <c r="H11" s="154" t="n"/>
+      <c r="I11" s="163" t="n"/>
+      <c r="J11" s="154" t="n"/>
+      <c r="K11" s="154" t="n"/>
+      <c r="L11" s="154" t="n"/>
+      <c r="M11" s="172" t="n"/>
+      <c r="N11" s="154" t="n"/>
+      <c r="O11" s="154" t="n"/>
+      <c r="P11" s="154" t="n"/>
+      <c r="Q11" s="163" t="n"/>
+      <c r="R11" s="154" t="n"/>
+      <c r="S11" s="154" t="n"/>
+      <c r="T11" s="154" t="n"/>
+      <c r="U11" s="172" t="n"/>
+      <c r="V11" s="154" t="n"/>
+      <c r="W11" s="154" t="n"/>
+      <c r="X11" s="154" t="n"/>
+      <c r="Y11" s="163" t="n"/>
+      <c r="Z11" s="154" t="n"/>
+      <c r="AA11" s="154" t="n"/>
+      <c r="AB11" s="154" t="n"/>
+      <c r="AC11" s="172" t="n"/>
+      <c r="AD11" s="154" t="n"/>
+      <c r="AE11" s="154" t="n"/>
+      <c r="AF11" s="154" t="n"/>
+      <c r="AG11" s="163" t="n"/>
+      <c r="AH11" s="154" t="n"/>
+      <c r="AI11" s="154" t="n"/>
+      <c r="AJ11" s="154" t="n"/>
+      <c r="AK11" s="172" t="n"/>
+      <c r="AL11" s="154" t="n"/>
+      <c r="AM11" s="154" t="n"/>
+      <c r="AN11" s="154" t="n"/>
+      <c r="AO11" s="163" t="n"/>
+      <c r="AP11" s="154" t="n"/>
+      <c r="AQ11" s="154" t="n"/>
+      <c r="AR11" s="154" t="n"/>
     </row>
     <row r="12" ht="40" customHeight="1">
       <c r="A12" s="84" t="n"/>
@@ -2582,50 +2599,50 @@
       <c r="D12" s="11" t="n">
         <v>45233</v>
       </c>
-      <c r="E12" s="171" t="inlineStr">
+      <c r="E12" s="173" t="inlineStr">
         <is>
           <t>vacances</t>
         </is>
       </c>
-      <c r="F12" s="150" t="n"/>
-      <c r="G12" s="150" t="n"/>
-      <c r="H12" s="150" t="n"/>
-      <c r="I12" s="161" t="n"/>
-      <c r="J12" s="150" t="n"/>
-      <c r="K12" s="150" t="n"/>
-      <c r="L12" s="150" t="n"/>
-      <c r="M12" s="170" t="n"/>
-      <c r="N12" s="150" t="n"/>
-      <c r="O12" s="150" t="n"/>
-      <c r="P12" s="150" t="n"/>
-      <c r="Q12" s="161" t="n"/>
-      <c r="R12" s="150" t="n"/>
-      <c r="S12" s="150" t="n"/>
-      <c r="T12" s="150" t="n"/>
-      <c r="U12" s="170" t="n"/>
-      <c r="V12" s="150" t="n"/>
-      <c r="W12" s="150" t="n"/>
-      <c r="X12" s="150" t="n"/>
-      <c r="Y12" s="161" t="n"/>
-      <c r="Z12" s="150" t="n"/>
-      <c r="AA12" s="150" t="n"/>
-      <c r="AB12" s="150" t="n"/>
-      <c r="AC12" s="170" t="n"/>
-      <c r="AD12" s="150" t="n"/>
-      <c r="AE12" s="150" t="n"/>
-      <c r="AF12" s="150" t="n"/>
-      <c r="AG12" s="161" t="n"/>
-      <c r="AH12" s="150" t="n"/>
-      <c r="AI12" s="150" t="n"/>
-      <c r="AJ12" s="150" t="n"/>
-      <c r="AK12" s="170" t="n"/>
-      <c r="AL12" s="150" t="n"/>
-      <c r="AM12" s="150" t="n"/>
-      <c r="AN12" s="150" t="n"/>
-      <c r="AO12" s="161" t="n"/>
-      <c r="AP12" s="150" t="n"/>
-      <c r="AQ12" s="150" t="n"/>
-      <c r="AR12" s="150" t="n"/>
+      <c r="F12" s="154" t="n"/>
+      <c r="G12" s="154" t="n"/>
+      <c r="H12" s="154" t="n"/>
+      <c r="I12" s="163" t="n"/>
+      <c r="J12" s="154" t="n"/>
+      <c r="K12" s="154" t="n"/>
+      <c r="L12" s="154" t="n"/>
+      <c r="M12" s="172" t="n"/>
+      <c r="N12" s="154" t="n"/>
+      <c r="O12" s="154" t="n"/>
+      <c r="P12" s="154" t="n"/>
+      <c r="Q12" s="163" t="n"/>
+      <c r="R12" s="154" t="n"/>
+      <c r="S12" s="154" t="n"/>
+      <c r="T12" s="154" t="n"/>
+      <c r="U12" s="172" t="n"/>
+      <c r="V12" s="154" t="n"/>
+      <c r="W12" s="154" t="n"/>
+      <c r="X12" s="154" t="n"/>
+      <c r="Y12" s="163" t="n"/>
+      <c r="Z12" s="154" t="n"/>
+      <c r="AA12" s="154" t="n"/>
+      <c r="AB12" s="154" t="n"/>
+      <c r="AC12" s="172" t="n"/>
+      <c r="AD12" s="154" t="n"/>
+      <c r="AE12" s="154" t="n"/>
+      <c r="AF12" s="154" t="n"/>
+      <c r="AG12" s="163" t="n"/>
+      <c r="AH12" s="154" t="n"/>
+      <c r="AI12" s="154" t="n"/>
+      <c r="AJ12" s="154" t="n"/>
+      <c r="AK12" s="172" t="n"/>
+      <c r="AL12" s="154" t="n"/>
+      <c r="AM12" s="154" t="n"/>
+      <c r="AN12" s="154" t="n"/>
+      <c r="AO12" s="163" t="n"/>
+      <c r="AP12" s="154" t="n"/>
+      <c r="AQ12" s="154" t="n"/>
+      <c r="AR12" s="154" t="n"/>
     </row>
     <row r="13" ht="40" customHeight="1">
       <c r="A13" s="84" t="n"/>
@@ -2636,50 +2653,50 @@
       <c r="D13" s="11" t="n">
         <v>45240</v>
       </c>
-      <c r="E13" s="169" t="inlineStr">
+      <c r="E13" s="171" t="inlineStr">
         <is>
           <t>filière métier</t>
         </is>
       </c>
-      <c r="F13" s="150" t="n"/>
-      <c r="G13" s="150" t="n"/>
-      <c r="H13" s="150" t="n"/>
-      <c r="I13" s="161" t="n"/>
-      <c r="J13" s="150" t="n"/>
-      <c r="K13" s="150" t="n"/>
-      <c r="L13" s="150" t="n"/>
-      <c r="M13" s="170" t="n"/>
-      <c r="N13" s="150" t="n"/>
-      <c r="O13" s="150" t="n"/>
-      <c r="P13" s="150" t="n"/>
-      <c r="Q13" s="161" t="n"/>
-      <c r="R13" s="150" t="n"/>
-      <c r="S13" s="150" t="n"/>
-      <c r="T13" s="150" t="n"/>
-      <c r="U13" s="170" t="n"/>
-      <c r="V13" s="150" t="n"/>
-      <c r="W13" s="150" t="n"/>
-      <c r="X13" s="150" t="n"/>
-      <c r="Y13" s="161" t="n"/>
-      <c r="Z13" s="150" t="n"/>
-      <c r="AA13" s="150" t="n"/>
-      <c r="AB13" s="150" t="n"/>
-      <c r="AC13" s="170" t="n"/>
-      <c r="AD13" s="150" t="n"/>
-      <c r="AE13" s="150" t="n"/>
-      <c r="AF13" s="150" t="n"/>
-      <c r="AG13" s="161" t="n"/>
-      <c r="AH13" s="150" t="n"/>
-      <c r="AI13" s="150" t="n"/>
-      <c r="AJ13" s="150" t="n"/>
-      <c r="AK13" s="170" t="n"/>
-      <c r="AL13" s="150" t="n"/>
-      <c r="AM13" s="150" t="n"/>
-      <c r="AN13" s="150" t="n"/>
-      <c r="AO13" s="161" t="n"/>
-      <c r="AP13" s="150" t="n"/>
-      <c r="AQ13" s="150" t="n"/>
-      <c r="AR13" s="150" t="n"/>
+      <c r="F13" s="154" t="n"/>
+      <c r="G13" s="154" t="n"/>
+      <c r="H13" s="154" t="n"/>
+      <c r="I13" s="163" t="n"/>
+      <c r="J13" s="154" t="n"/>
+      <c r="K13" s="154" t="n"/>
+      <c r="L13" s="154" t="n"/>
+      <c r="M13" s="172" t="n"/>
+      <c r="N13" s="154" t="n"/>
+      <c r="O13" s="154" t="n"/>
+      <c r="P13" s="154" t="n"/>
+      <c r="Q13" s="163" t="n"/>
+      <c r="R13" s="154" t="n"/>
+      <c r="S13" s="154" t="n"/>
+      <c r="T13" s="154" t="n"/>
+      <c r="U13" s="172" t="n"/>
+      <c r="V13" s="154" t="n"/>
+      <c r="W13" s="154" t="n"/>
+      <c r="X13" s="154" t="n"/>
+      <c r="Y13" s="163" t="n"/>
+      <c r="Z13" s="154" t="n"/>
+      <c r="AA13" s="154" t="n"/>
+      <c r="AB13" s="154" t="n"/>
+      <c r="AC13" s="172" t="n"/>
+      <c r="AD13" s="154" t="n"/>
+      <c r="AE13" s="154" t="n"/>
+      <c r="AF13" s="154" t="n"/>
+      <c r="AG13" s="163" t="n"/>
+      <c r="AH13" s="154" t="n"/>
+      <c r="AI13" s="154" t="n"/>
+      <c r="AJ13" s="154" t="n"/>
+      <c r="AK13" s="172" t="n"/>
+      <c r="AL13" s="154" t="n"/>
+      <c r="AM13" s="154" t="n"/>
+      <c r="AN13" s="154" t="n"/>
+      <c r="AO13" s="163" t="n"/>
+      <c r="AP13" s="154" t="n"/>
+      <c r="AQ13" s="154" t="n"/>
+      <c r="AR13" s="154" t="n"/>
     </row>
     <row r="14" ht="40" customHeight="1">
       <c r="A14" s="85" t="n"/>
@@ -2690,50 +2707,50 @@
       <c r="D14" s="23" t="n">
         <v>45247</v>
       </c>
-      <c r="E14" s="172" t="inlineStr">
+      <c r="E14" s="174" t="inlineStr">
         <is>
           <t>tronc commun 3A</t>
         </is>
       </c>
-      <c r="F14" s="150" t="n"/>
-      <c r="G14" s="150" t="n"/>
-      <c r="H14" s="150" t="n"/>
-      <c r="I14" s="161" t="n"/>
-      <c r="J14" s="150" t="n"/>
-      <c r="K14" s="150" t="n"/>
-      <c r="L14" s="150" t="n"/>
-      <c r="M14" s="170" t="n"/>
-      <c r="N14" s="150" t="n"/>
-      <c r="O14" s="150" t="n"/>
-      <c r="P14" s="150" t="n"/>
-      <c r="Q14" s="161" t="n"/>
-      <c r="R14" s="150" t="n"/>
-      <c r="S14" s="150" t="n"/>
-      <c r="T14" s="150" t="n"/>
-      <c r="U14" s="170" t="n"/>
-      <c r="V14" s="150" t="n"/>
-      <c r="W14" s="150" t="n"/>
-      <c r="X14" s="150" t="n"/>
-      <c r="Y14" s="161" t="n"/>
-      <c r="Z14" s="150" t="n"/>
-      <c r="AA14" s="150" t="n"/>
-      <c r="AB14" s="150" t="n"/>
-      <c r="AC14" s="170" t="n"/>
-      <c r="AD14" s="150" t="n"/>
-      <c r="AE14" s="150" t="n"/>
-      <c r="AF14" s="150" t="n"/>
-      <c r="AG14" s="161" t="n"/>
-      <c r="AH14" s="150" t="n"/>
-      <c r="AI14" s="150" t="n"/>
-      <c r="AJ14" s="150" t="n"/>
-      <c r="AK14" s="170" t="n"/>
-      <c r="AL14" s="150" t="n"/>
-      <c r="AM14" s="150" t="n"/>
-      <c r="AN14" s="150" t="n"/>
-      <c r="AO14" s="161" t="n"/>
-      <c r="AP14" s="150" t="n"/>
-      <c r="AQ14" s="150" t="n"/>
-      <c r="AR14" s="150" t="n"/>
+      <c r="F14" s="154" t="n"/>
+      <c r="G14" s="154" t="n"/>
+      <c r="H14" s="154" t="n"/>
+      <c r="I14" s="163" t="n"/>
+      <c r="J14" s="154" t="n"/>
+      <c r="K14" s="154" t="n"/>
+      <c r="L14" s="154" t="n"/>
+      <c r="M14" s="172" t="n"/>
+      <c r="N14" s="154" t="n"/>
+      <c r="O14" s="154" t="n"/>
+      <c r="P14" s="154" t="n"/>
+      <c r="Q14" s="163" t="n"/>
+      <c r="R14" s="154" t="n"/>
+      <c r="S14" s="154" t="n"/>
+      <c r="T14" s="154" t="n"/>
+      <c r="U14" s="172" t="n"/>
+      <c r="V14" s="154" t="n"/>
+      <c r="W14" s="154" t="n"/>
+      <c r="X14" s="154" t="n"/>
+      <c r="Y14" s="163" t="n"/>
+      <c r="Z14" s="154" t="n"/>
+      <c r="AA14" s="154" t="n"/>
+      <c r="AB14" s="154" t="n"/>
+      <c r="AC14" s="172" t="n"/>
+      <c r="AD14" s="154" t="n"/>
+      <c r="AE14" s="154" t="n"/>
+      <c r="AF14" s="154" t="n"/>
+      <c r="AG14" s="163" t="n"/>
+      <c r="AH14" s="154" t="n"/>
+      <c r="AI14" s="154" t="n"/>
+      <c r="AJ14" s="154" t="n"/>
+      <c r="AK14" s="172" t="n"/>
+      <c r="AL14" s="154" t="n"/>
+      <c r="AM14" s="154" t="n"/>
+      <c r="AN14" s="154" t="n"/>
+      <c r="AO14" s="163" t="n"/>
+      <c r="AP14" s="154" t="n"/>
+      <c r="AQ14" s="154" t="n"/>
+      <c r="AR14" s="154" t="n"/>
     </row>
     <row r="15" ht="40" customHeight="1">
       <c r="A15" s="108" t="inlineStr">
@@ -2750,49 +2767,49 @@
       <c r="D15" s="25" t="n">
         <v>45254</v>
       </c>
-      <c r="E15" s="147" t="n"/>
-      <c r="F15" s="166" t="inlineStr">
+      <c r="E15" s="151" t="n"/>
+      <c r="F15" s="168" t="inlineStr">
         <is>
           <t>User Interface
 (Valery Ly)
 XXX</t>
         </is>
       </c>
-      <c r="G15" s="150" t="n"/>
-      <c r="H15" s="150" t="n"/>
-      <c r="I15" s="173" t="n"/>
-      <c r="J15" s="155" t="n"/>
-      <c r="K15" s="155" t="n"/>
-      <c r="L15" s="148" t="n"/>
-      <c r="M15" s="152" t="inlineStr">
+      <c r="G15" s="154" t="n"/>
+      <c r="H15" s="154" t="n"/>
+      <c r="I15" s="175" t="n"/>
+      <c r="J15" s="148" t="n"/>
+      <c r="K15" s="148" t="n"/>
+      <c r="L15" s="152" t="n"/>
+      <c r="M15" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N15" s="150" t="n"/>
-      <c r="O15" s="150" t="n"/>
-      <c r="P15" s="150" t="n"/>
-      <c r="Q15" s="162" t="inlineStr">
+      <c r="N15" s="154" t="n"/>
+      <c r="O15" s="154" t="n"/>
+      <c r="P15" s="154" t="n"/>
+      <c r="Q15" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R15" s="150" t="n"/>
-      <c r="S15" s="150" t="n"/>
-      <c r="T15" s="150" t="n"/>
-      <c r="U15" s="147" t="n"/>
-      <c r="V15" s="148" t="n"/>
-      <c r="W15" s="148" t="n"/>
-      <c r="X15" s="148" t="n"/>
-      <c r="Y15" s="158" t="inlineStr">
+      <c r="R15" s="154" t="n"/>
+      <c r="S15" s="154" t="n"/>
+      <c r="T15" s="154" t="n"/>
+      <c r="U15" s="151" t="n"/>
+      <c r="V15" s="152" t="n"/>
+      <c r="W15" s="152" t="n"/>
+      <c r="X15" s="152" t="n"/>
+      <c r="Y15" s="160" t="inlineStr">
         <is>
           <t>POK&amp;MON
 (FB-FM-LP)
 218</t>
         </is>
       </c>
-      <c r="Z15" s="150" t="n"/>
-      <c r="AA15" s="149" t="inlineStr">
+      <c r="Z15" s="154" t="n"/>
+      <c r="AA15" s="153" t="inlineStr">
         <is>
           <t xml:space="preserve">Conférence métier
 (Adrien BARRAL- etp Exail)
@@ -2800,23 +2817,23 @@
 </t>
         </is>
       </c>
-      <c r="AB15" s="150" t="n"/>
-      <c r="AC15" s="147" t="n"/>
-      <c r="AD15" s="154" t="n"/>
-      <c r="AE15" s="155" t="n"/>
-      <c r="AF15" s="155" t="n"/>
-      <c r="AG15" s="156" t="n"/>
-      <c r="AH15" s="155" t="n"/>
-      <c r="AI15" s="155" t="n"/>
-      <c r="AJ15" s="148" t="n"/>
-      <c r="AK15" s="147" t="n"/>
-      <c r="AL15" s="154" t="n"/>
-      <c r="AM15" s="155" t="n"/>
-      <c r="AN15" s="155" t="n"/>
-      <c r="AO15" s="156" t="n"/>
-      <c r="AP15" s="155" t="n"/>
-      <c r="AQ15" s="155" t="n"/>
-      <c r="AR15" s="148" t="n"/>
+      <c r="AB15" s="154" t="n"/>
+      <c r="AC15" s="151" t="n"/>
+      <c r="AD15" s="147" t="n"/>
+      <c r="AE15" s="148" t="n"/>
+      <c r="AF15" s="148" t="n"/>
+      <c r="AG15" s="158" t="n"/>
+      <c r="AH15" s="148" t="n"/>
+      <c r="AI15" s="148" t="n"/>
+      <c r="AJ15" s="152" t="n"/>
+      <c r="AK15" s="151" t="n"/>
+      <c r="AL15" s="147" t="n"/>
+      <c r="AM15" s="148" t="n"/>
+      <c r="AN15" s="148" t="n"/>
+      <c r="AO15" s="158" t="n"/>
+      <c r="AP15" s="148" t="n"/>
+      <c r="AQ15" s="148" t="n"/>
+      <c r="AR15" s="152" t="n"/>
     </row>
     <row r="16" ht="40" customHeight="1">
       <c r="A16" s="84" t="n"/>
@@ -2829,72 +2846,72 @@
       <c r="D16" s="11" t="n">
         <v>45261</v>
       </c>
-      <c r="E16" s="147" t="n"/>
-      <c r="F16" s="166" t="inlineStr">
+      <c r="E16" s="151" t="n"/>
+      <c r="F16" s="168" t="inlineStr">
         <is>
           <t>User Interface
 (Valery Ly)
 XXX</t>
         </is>
       </c>
-      <c r="G16" s="150" t="n"/>
-      <c r="H16" s="150" t="n"/>
-      <c r="I16" s="173" t="n"/>
-      <c r="J16" s="155" t="n"/>
-      <c r="K16" s="155" t="n"/>
-      <c r="L16" s="148" t="n"/>
-      <c r="M16" s="152" t="inlineStr">
+      <c r="G16" s="154" t="n"/>
+      <c r="H16" s="154" t="n"/>
+      <c r="I16" s="175" t="n"/>
+      <c r="J16" s="148" t="n"/>
+      <c r="K16" s="148" t="n"/>
+      <c r="L16" s="152" t="n"/>
+      <c r="M16" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N16" s="150" t="n"/>
-      <c r="O16" s="150" t="n"/>
-      <c r="P16" s="150" t="n"/>
-      <c r="Q16" s="162" t="inlineStr">
+      <c r="N16" s="154" t="n"/>
+      <c r="O16" s="154" t="n"/>
+      <c r="P16" s="154" t="n"/>
+      <c r="Q16" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R16" s="150" t="n"/>
-      <c r="S16" s="150" t="n"/>
-      <c r="T16" s="150" t="n"/>
-      <c r="U16" s="147" t="n"/>
-      <c r="V16" s="174" t="inlineStr">
+      <c r="R16" s="154" t="n"/>
+      <c r="S16" s="154" t="n"/>
+      <c r="T16" s="154" t="n"/>
+      <c r="U16" s="151" t="n"/>
+      <c r="V16" s="176" t="inlineStr">
         <is>
           <t>Structuration d'un projet Info
 (Audrey Torjmann)
 218</t>
         </is>
       </c>
-      <c r="W16" s="150" t="n"/>
-      <c r="X16" s="150" t="n"/>
-      <c r="Y16" s="175" t="inlineStr">
+      <c r="W16" s="154" t="n"/>
+      <c r="X16" s="154" t="n"/>
+      <c r="Y16" s="177" t="inlineStr">
         <is>
           <t>Structuration d'un projet Info
 (Audrey Torjmann)
 218</t>
         </is>
       </c>
-      <c r="Z16" s="150" t="n"/>
-      <c r="AA16" s="150" t="n"/>
-      <c r="AB16" s="148" t="n"/>
-      <c r="AC16" s="147" t="n"/>
-      <c r="AD16" s="148" t="n"/>
-      <c r="AE16" s="148" t="n"/>
-      <c r="AF16" s="148" t="n"/>
-      <c r="AG16" s="153" t="n"/>
-      <c r="AH16" s="148" t="n"/>
-      <c r="AI16" s="148" t="n"/>
-      <c r="AJ16" s="148" t="n"/>
-      <c r="AK16" s="147" t="n"/>
-      <c r="AL16" s="148" t="n"/>
-      <c r="AM16" s="148" t="n"/>
-      <c r="AN16" s="148" t="n"/>
-      <c r="AO16" s="173" t="n"/>
-      <c r="AP16" s="155" t="n"/>
-      <c r="AQ16" s="155" t="n"/>
-      <c r="AR16" s="148" t="n"/>
+      <c r="Z16" s="154" t="n"/>
+      <c r="AA16" s="154" t="n"/>
+      <c r="AB16" s="152" t="n"/>
+      <c r="AC16" s="151" t="n"/>
+      <c r="AD16" s="152" t="n"/>
+      <c r="AE16" s="152" t="n"/>
+      <c r="AF16" s="152" t="n"/>
+      <c r="AG16" s="157" t="n"/>
+      <c r="AH16" s="152" t="n"/>
+      <c r="AI16" s="152" t="n"/>
+      <c r="AJ16" s="152" t="n"/>
+      <c r="AK16" s="151" t="n"/>
+      <c r="AL16" s="152" t="n"/>
+      <c r="AM16" s="152" t="n"/>
+      <c r="AN16" s="152" t="n"/>
+      <c r="AO16" s="175" t="n"/>
+      <c r="AP16" s="148" t="n"/>
+      <c r="AQ16" s="148" t="n"/>
+      <c r="AR16" s="152" t="n"/>
     </row>
     <row r="17" ht="40" customHeight="1">
       <c r="A17" s="84" t="n"/>
@@ -2907,84 +2924,84 @@
       <c r="D17" s="11" t="n">
         <v>45268</v>
       </c>
-      <c r="E17" s="147" t="n"/>
-      <c r="F17" s="166" t="inlineStr">
+      <c r="E17" s="151" t="n"/>
+      <c r="F17" s="168" t="inlineStr">
         <is>
           <t>User Interface
 (Valery Ly)
 XXX</t>
         </is>
       </c>
-      <c r="G17" s="150" t="n"/>
-      <c r="H17" s="150" t="n"/>
-      <c r="I17" s="176" t="inlineStr">
+      <c r="G17" s="154" t="n"/>
+      <c r="H17" s="154" t="n"/>
+      <c r="I17" s="178" t="inlineStr">
         <is>
           <t>User Interface
 (Valery Ly)
 XXX</t>
         </is>
       </c>
-      <c r="J17" s="150" t="n"/>
-      <c r="K17" s="150" t="n"/>
-      <c r="L17" s="148" t="n"/>
-      <c r="M17" s="152" t="inlineStr">
+      <c r="J17" s="154" t="n"/>
+      <c r="K17" s="154" t="n"/>
+      <c r="L17" s="152" t="n"/>
+      <c r="M17" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N17" s="150" t="n"/>
-      <c r="O17" s="150" t="n"/>
-      <c r="P17" s="150" t="n"/>
-      <c r="Q17" s="162" t="inlineStr">
+      <c r="N17" s="154" t="n"/>
+      <c r="O17" s="154" t="n"/>
+      <c r="P17" s="154" t="n"/>
+      <c r="Q17" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R17" s="150" t="n"/>
-      <c r="S17" s="150" t="n"/>
-      <c r="T17" s="150" t="n"/>
-      <c r="U17" s="147" t="n"/>
-      <c r="V17" s="174" t="inlineStr">
+      <c r="R17" s="154" t="n"/>
+      <c r="S17" s="154" t="n"/>
+      <c r="T17" s="154" t="n"/>
+      <c r="U17" s="151" t="n"/>
+      <c r="V17" s="176" t="inlineStr">
         <is>
           <t>Programmation par les tests
 (Julie Brunetto - Antonio Candido)
 218</t>
         </is>
       </c>
-      <c r="W17" s="150" t="n"/>
-      <c r="X17" s="150" t="n"/>
-      <c r="Y17" s="175" t="inlineStr">
+      <c r="W17" s="154" t="n"/>
+      <c r="X17" s="154" t="n"/>
+      <c r="Y17" s="177" t="inlineStr">
         <is>
           <t>Programmation par les tests
 (Julie Brunetto - Antonio Candido)
 218</t>
         </is>
       </c>
-      <c r="Z17" s="150" t="n"/>
-      <c r="AA17" s="150" t="n"/>
-      <c r="AB17" s="148" t="n"/>
-      <c r="AC17" s="147" t="n"/>
-      <c r="AD17" s="160" t="inlineStr">
+      <c r="Z17" s="154" t="n"/>
+      <c r="AA17" s="154" t="n"/>
+      <c r="AB17" s="152" t="n"/>
+      <c r="AC17" s="151" t="n"/>
+      <c r="AD17" s="162" t="inlineStr">
         <is>
           <t>Stratégie &amp; SI
 (Laetitia PIET)
 xxx</t>
         </is>
       </c>
-      <c r="AE17" s="150" t="n"/>
-      <c r="AF17" s="150" t="n"/>
-      <c r="AG17" s="161" t="n"/>
-      <c r="AH17" s="150" t="n"/>
-      <c r="AI17" s="150" t="n"/>
-      <c r="AJ17" s="148" t="n"/>
-      <c r="AK17" s="147" t="n"/>
-      <c r="AL17" s="148" t="n"/>
-      <c r="AM17" s="148" t="n"/>
-      <c r="AN17" s="148" t="n"/>
-      <c r="AO17" s="173" t="n"/>
-      <c r="AP17" s="155" t="n"/>
-      <c r="AQ17" s="155" t="n"/>
-      <c r="AR17" s="148" t="n"/>
+      <c r="AE17" s="154" t="n"/>
+      <c r="AF17" s="154" t="n"/>
+      <c r="AG17" s="163" t="n"/>
+      <c r="AH17" s="154" t="n"/>
+      <c r="AI17" s="154" t="n"/>
+      <c r="AJ17" s="152" t="n"/>
+      <c r="AK17" s="151" t="n"/>
+      <c r="AL17" s="152" t="n"/>
+      <c r="AM17" s="152" t="n"/>
+      <c r="AN17" s="152" t="n"/>
+      <c r="AO17" s="175" t="n"/>
+      <c r="AP17" s="148" t="n"/>
+      <c r="AQ17" s="148" t="n"/>
+      <c r="AR17" s="152" t="n"/>
     </row>
     <row r="18" ht="40" customHeight="1">
       <c r="A18" s="84" t="n"/>
@@ -2997,90 +3014,90 @@
       <c r="D18" s="11" t="n">
         <v>45275</v>
       </c>
-      <c r="E18" s="147" t="n"/>
-      <c r="F18" s="154" t="n"/>
-      <c r="G18" s="155" t="n"/>
-      <c r="H18" s="155" t="n"/>
-      <c r="I18" s="165" t="inlineStr">
+      <c r="E18" s="151" t="n"/>
+      <c r="F18" s="147" t="n"/>
+      <c r="G18" s="148" t="n"/>
+      <c r="H18" s="148" t="n"/>
+      <c r="I18" s="167" t="inlineStr">
         <is>
           <t>Stratégie &amp; SI
 (Laetitia PIET)
 xxx</t>
         </is>
       </c>
-      <c r="J18" s="150" t="n"/>
-      <c r="K18" s="150" t="n"/>
-      <c r="L18" s="148" t="n"/>
-      <c r="M18" s="152" t="inlineStr">
+      <c r="J18" s="154" t="n"/>
+      <c r="K18" s="154" t="n"/>
+      <c r="L18" s="152" t="n"/>
+      <c r="M18" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N18" s="150" t="n"/>
-      <c r="O18" s="150" t="n"/>
-      <c r="P18" s="150" t="n"/>
-      <c r="Q18" s="162" t="inlineStr">
+      <c r="N18" s="154" t="n"/>
+      <c r="O18" s="154" t="n"/>
+      <c r="P18" s="154" t="n"/>
+      <c r="Q18" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R18" s="150" t="n"/>
-      <c r="S18" s="150" t="n"/>
-      <c r="T18" s="150" t="n"/>
-      <c r="U18" s="147" t="n"/>
-      <c r="V18" s="148" t="n"/>
-      <c r="W18" s="163" t="inlineStr">
+      <c r="R18" s="154" t="n"/>
+      <c r="S18" s="154" t="n"/>
+      <c r="T18" s="154" t="n"/>
+      <c r="U18" s="151" t="n"/>
+      <c r="V18" s="152" t="n"/>
+      <c r="W18" s="165" t="inlineStr">
         <is>
           <t>point POK sprint 1
 (FB-FM-LP)
 XXX</t>
         </is>
       </c>
-      <c r="X18" s="150" t="n"/>
-      <c r="Y18" s="164" t="inlineStr">
+      <c r="X18" s="154" t="n"/>
+      <c r="Y18" s="166" t="inlineStr">
         <is>
           <t>prez MON 1
 (FB-FM-LP)
 XXX</t>
         </is>
       </c>
-      <c r="Z18" s="150" t="n"/>
-      <c r="AA18" s="148" t="n"/>
-      <c r="AB18" s="148" t="n"/>
-      <c r="AC18" s="147" t="n"/>
-      <c r="AD18" s="160" t="inlineStr">
+      <c r="Z18" s="154" t="n"/>
+      <c r="AA18" s="152" t="n"/>
+      <c r="AB18" s="152" t="n"/>
+      <c r="AC18" s="151" t="n"/>
+      <c r="AD18" s="162" t="inlineStr">
         <is>
           <t>Stratégie &amp; SI
 (Laetitia PIET)
 xxx</t>
         </is>
       </c>
-      <c r="AE18" s="150" t="n"/>
-      <c r="AF18" s="150" t="n"/>
-      <c r="AG18" s="165" t="inlineStr">
+      <c r="AE18" s="154" t="n"/>
+      <c r="AF18" s="154" t="n"/>
+      <c r="AG18" s="167" t="inlineStr">
         <is>
           <t>Stratégie &amp; SI
 (Laetitia PIET)
 xxx</t>
         </is>
       </c>
-      <c r="AH18" s="150" t="n"/>
-      <c r="AI18" s="150" t="n"/>
-      <c r="AJ18" s="148" t="n"/>
-      <c r="AK18" s="147" t="n"/>
-      <c r="AL18" s="160" t="inlineStr">
+      <c r="AH18" s="154" t="n"/>
+      <c r="AI18" s="154" t="n"/>
+      <c r="AJ18" s="152" t="n"/>
+      <c r="AK18" s="151" t="n"/>
+      <c r="AL18" s="162" t="inlineStr">
         <is>
           <t>Conception SI
 (Camille Girard)
 xxx</t>
         </is>
       </c>
-      <c r="AM18" s="150" t="n"/>
-      <c r="AN18" s="150" t="n"/>
-      <c r="AO18" s="153" t="n"/>
-      <c r="AP18" s="148" t="n"/>
-      <c r="AQ18" s="148" t="n"/>
-      <c r="AR18" s="148" t="n"/>
+      <c r="AM18" s="154" t="n"/>
+      <c r="AN18" s="154" t="n"/>
+      <c r="AO18" s="157" t="n"/>
+      <c r="AP18" s="152" t="n"/>
+      <c r="AQ18" s="152" t="n"/>
+      <c r="AR18" s="152" t="n"/>
     </row>
     <row r="19" ht="40" customHeight="1">
       <c r="A19" s="84" t="n"/>
@@ -3091,50 +3108,50 @@
       <c r="D19" s="11" t="n">
         <v>45282</v>
       </c>
-      <c r="E19" s="169" t="inlineStr">
+      <c r="E19" s="171" t="inlineStr">
         <is>
           <t>filière métier</t>
         </is>
       </c>
-      <c r="F19" s="150" t="n"/>
-      <c r="G19" s="150" t="n"/>
-      <c r="H19" s="150" t="n"/>
-      <c r="I19" s="161" t="n"/>
-      <c r="J19" s="150" t="n"/>
-      <c r="K19" s="150" t="n"/>
-      <c r="L19" s="150" t="n"/>
-      <c r="M19" s="170" t="n"/>
-      <c r="N19" s="150" t="n"/>
-      <c r="O19" s="150" t="n"/>
-      <c r="P19" s="150" t="n"/>
-      <c r="Q19" s="161" t="n"/>
-      <c r="R19" s="150" t="n"/>
-      <c r="S19" s="150" t="n"/>
-      <c r="T19" s="150" t="n"/>
-      <c r="U19" s="170" t="n"/>
-      <c r="V19" s="150" t="n"/>
-      <c r="W19" s="150" t="n"/>
-      <c r="X19" s="150" t="n"/>
-      <c r="Y19" s="161" t="n"/>
-      <c r="Z19" s="150" t="n"/>
-      <c r="AA19" s="150" t="n"/>
-      <c r="AB19" s="150" t="n"/>
-      <c r="AC19" s="170" t="n"/>
-      <c r="AD19" s="150" t="n"/>
-      <c r="AE19" s="150" t="n"/>
-      <c r="AF19" s="150" t="n"/>
-      <c r="AG19" s="161" t="n"/>
-      <c r="AH19" s="150" t="n"/>
-      <c r="AI19" s="150" t="n"/>
-      <c r="AJ19" s="150" t="n"/>
-      <c r="AK19" s="170" t="n"/>
-      <c r="AL19" s="150" t="n"/>
-      <c r="AM19" s="150" t="n"/>
-      <c r="AN19" s="150" t="n"/>
-      <c r="AO19" s="161" t="n"/>
-      <c r="AP19" s="150" t="n"/>
-      <c r="AQ19" s="150" t="n"/>
-      <c r="AR19" s="150" t="n"/>
+      <c r="F19" s="154" t="n"/>
+      <c r="G19" s="154" t="n"/>
+      <c r="H19" s="154" t="n"/>
+      <c r="I19" s="163" t="n"/>
+      <c r="J19" s="154" t="n"/>
+      <c r="K19" s="154" t="n"/>
+      <c r="L19" s="154" t="n"/>
+      <c r="M19" s="172" t="n"/>
+      <c r="N19" s="154" t="n"/>
+      <c r="O19" s="154" t="n"/>
+      <c r="P19" s="154" t="n"/>
+      <c r="Q19" s="163" t="n"/>
+      <c r="R19" s="154" t="n"/>
+      <c r="S19" s="154" t="n"/>
+      <c r="T19" s="154" t="n"/>
+      <c r="U19" s="172" t="n"/>
+      <c r="V19" s="154" t="n"/>
+      <c r="W19" s="154" t="n"/>
+      <c r="X19" s="154" t="n"/>
+      <c r="Y19" s="163" t="n"/>
+      <c r="Z19" s="154" t="n"/>
+      <c r="AA19" s="154" t="n"/>
+      <c r="AB19" s="154" t="n"/>
+      <c r="AC19" s="172" t="n"/>
+      <c r="AD19" s="154" t="n"/>
+      <c r="AE19" s="154" t="n"/>
+      <c r="AF19" s="154" t="n"/>
+      <c r="AG19" s="163" t="n"/>
+      <c r="AH19" s="154" t="n"/>
+      <c r="AI19" s="154" t="n"/>
+      <c r="AJ19" s="154" t="n"/>
+      <c r="AK19" s="172" t="n"/>
+      <c r="AL19" s="154" t="n"/>
+      <c r="AM19" s="154" t="n"/>
+      <c r="AN19" s="154" t="n"/>
+      <c r="AO19" s="163" t="n"/>
+      <c r="AP19" s="154" t="n"/>
+      <c r="AQ19" s="154" t="n"/>
+      <c r="AR19" s="154" t="n"/>
     </row>
     <row r="20" ht="40" customHeight="1">
       <c r="A20" s="84" t="n"/>
@@ -3145,50 +3162,50 @@
       <c r="D20" s="11" t="n">
         <v>45289</v>
       </c>
-      <c r="E20" s="171" t="inlineStr">
+      <c r="E20" s="173" t="inlineStr">
         <is>
           <t>vacances</t>
         </is>
       </c>
-      <c r="F20" s="150" t="n"/>
-      <c r="G20" s="150" t="n"/>
-      <c r="H20" s="150" t="n"/>
-      <c r="I20" s="161" t="n"/>
-      <c r="J20" s="150" t="n"/>
-      <c r="K20" s="150" t="n"/>
-      <c r="L20" s="150" t="n"/>
-      <c r="M20" s="170" t="n"/>
-      <c r="N20" s="150" t="n"/>
-      <c r="O20" s="150" t="n"/>
-      <c r="P20" s="150" t="n"/>
-      <c r="Q20" s="161" t="n"/>
-      <c r="R20" s="150" t="n"/>
-      <c r="S20" s="150" t="n"/>
-      <c r="T20" s="150" t="n"/>
-      <c r="U20" s="170" t="n"/>
-      <c r="V20" s="150" t="n"/>
-      <c r="W20" s="150" t="n"/>
-      <c r="X20" s="150" t="n"/>
-      <c r="Y20" s="161" t="n"/>
-      <c r="Z20" s="150" t="n"/>
-      <c r="AA20" s="150" t="n"/>
-      <c r="AB20" s="150" t="n"/>
-      <c r="AC20" s="170" t="n"/>
-      <c r="AD20" s="150" t="n"/>
-      <c r="AE20" s="150" t="n"/>
-      <c r="AF20" s="150" t="n"/>
-      <c r="AG20" s="161" t="n"/>
-      <c r="AH20" s="150" t="n"/>
-      <c r="AI20" s="150" t="n"/>
-      <c r="AJ20" s="150" t="n"/>
-      <c r="AK20" s="170" t="n"/>
-      <c r="AL20" s="150" t="n"/>
-      <c r="AM20" s="150" t="n"/>
-      <c r="AN20" s="150" t="n"/>
-      <c r="AO20" s="161" t="n"/>
-      <c r="AP20" s="150" t="n"/>
-      <c r="AQ20" s="150" t="n"/>
-      <c r="AR20" s="150" t="n"/>
+      <c r="F20" s="154" t="n"/>
+      <c r="G20" s="154" t="n"/>
+      <c r="H20" s="154" t="n"/>
+      <c r="I20" s="163" t="n"/>
+      <c r="J20" s="154" t="n"/>
+      <c r="K20" s="154" t="n"/>
+      <c r="L20" s="154" t="n"/>
+      <c r="M20" s="172" t="n"/>
+      <c r="N20" s="154" t="n"/>
+      <c r="O20" s="154" t="n"/>
+      <c r="P20" s="154" t="n"/>
+      <c r="Q20" s="163" t="n"/>
+      <c r="R20" s="154" t="n"/>
+      <c r="S20" s="154" t="n"/>
+      <c r="T20" s="154" t="n"/>
+      <c r="U20" s="172" t="n"/>
+      <c r="V20" s="154" t="n"/>
+      <c r="W20" s="154" t="n"/>
+      <c r="X20" s="154" t="n"/>
+      <c r="Y20" s="163" t="n"/>
+      <c r="Z20" s="154" t="n"/>
+      <c r="AA20" s="154" t="n"/>
+      <c r="AB20" s="154" t="n"/>
+      <c r="AC20" s="172" t="n"/>
+      <c r="AD20" s="154" t="n"/>
+      <c r="AE20" s="154" t="n"/>
+      <c r="AF20" s="154" t="n"/>
+      <c r="AG20" s="163" t="n"/>
+      <c r="AH20" s="154" t="n"/>
+      <c r="AI20" s="154" t="n"/>
+      <c r="AJ20" s="154" t="n"/>
+      <c r="AK20" s="172" t="n"/>
+      <c r="AL20" s="154" t="n"/>
+      <c r="AM20" s="154" t="n"/>
+      <c r="AN20" s="154" t="n"/>
+      <c r="AO20" s="163" t="n"/>
+      <c r="AP20" s="154" t="n"/>
+      <c r="AQ20" s="154" t="n"/>
+      <c r="AR20" s="154" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="84" t="n"/>
@@ -3199,46 +3216,46 @@
       <c r="D21" s="11" t="n">
         <v>45296</v>
       </c>
-      <c r="E21" s="170" t="n"/>
-      <c r="F21" s="150" t="n"/>
-      <c r="G21" s="150" t="n"/>
-      <c r="H21" s="150" t="n"/>
-      <c r="I21" s="161" t="n"/>
-      <c r="J21" s="150" t="n"/>
-      <c r="K21" s="150" t="n"/>
-      <c r="L21" s="150" t="n"/>
-      <c r="M21" s="170" t="n"/>
-      <c r="N21" s="150" t="n"/>
-      <c r="O21" s="150" t="n"/>
-      <c r="P21" s="150" t="n"/>
-      <c r="Q21" s="161" t="n"/>
-      <c r="R21" s="150" t="n"/>
-      <c r="S21" s="150" t="n"/>
-      <c r="T21" s="150" t="n"/>
-      <c r="U21" s="170" t="n"/>
-      <c r="V21" s="150" t="n"/>
-      <c r="W21" s="150" t="n"/>
-      <c r="X21" s="150" t="n"/>
-      <c r="Y21" s="161" t="n"/>
-      <c r="Z21" s="150" t="n"/>
-      <c r="AA21" s="150" t="n"/>
-      <c r="AB21" s="150" t="n"/>
-      <c r="AC21" s="170" t="n"/>
-      <c r="AD21" s="150" t="n"/>
-      <c r="AE21" s="150" t="n"/>
-      <c r="AF21" s="150" t="n"/>
-      <c r="AG21" s="161" t="n"/>
-      <c r="AH21" s="150" t="n"/>
-      <c r="AI21" s="150" t="n"/>
-      <c r="AJ21" s="150" t="n"/>
-      <c r="AK21" s="170" t="n"/>
-      <c r="AL21" s="150" t="n"/>
-      <c r="AM21" s="150" t="n"/>
-      <c r="AN21" s="150" t="n"/>
-      <c r="AO21" s="161" t="n"/>
-      <c r="AP21" s="150" t="n"/>
-      <c r="AQ21" s="150" t="n"/>
-      <c r="AR21" s="150" t="n"/>
+      <c r="E21" s="172" t="n"/>
+      <c r="F21" s="154" t="n"/>
+      <c r="G21" s="154" t="n"/>
+      <c r="H21" s="154" t="n"/>
+      <c r="I21" s="163" t="n"/>
+      <c r="J21" s="154" t="n"/>
+      <c r="K21" s="154" t="n"/>
+      <c r="L21" s="154" t="n"/>
+      <c r="M21" s="172" t="n"/>
+      <c r="N21" s="154" t="n"/>
+      <c r="O21" s="154" t="n"/>
+      <c r="P21" s="154" t="n"/>
+      <c r="Q21" s="163" t="n"/>
+      <c r="R21" s="154" t="n"/>
+      <c r="S21" s="154" t="n"/>
+      <c r="T21" s="154" t="n"/>
+      <c r="U21" s="172" t="n"/>
+      <c r="V21" s="154" t="n"/>
+      <c r="W21" s="154" t="n"/>
+      <c r="X21" s="154" t="n"/>
+      <c r="Y21" s="163" t="n"/>
+      <c r="Z21" s="154" t="n"/>
+      <c r="AA21" s="154" t="n"/>
+      <c r="AB21" s="154" t="n"/>
+      <c r="AC21" s="172" t="n"/>
+      <c r="AD21" s="154" t="n"/>
+      <c r="AE21" s="154" t="n"/>
+      <c r="AF21" s="154" t="n"/>
+      <c r="AG21" s="163" t="n"/>
+      <c r="AH21" s="154" t="n"/>
+      <c r="AI21" s="154" t="n"/>
+      <c r="AJ21" s="154" t="n"/>
+      <c r="AK21" s="172" t="n"/>
+      <c r="AL21" s="154" t="n"/>
+      <c r="AM21" s="154" t="n"/>
+      <c r="AN21" s="154" t="n"/>
+      <c r="AO21" s="163" t="n"/>
+      <c r="AP21" s="154" t="n"/>
+      <c r="AQ21" s="154" t="n"/>
+      <c r="AR21" s="154" t="n"/>
     </row>
     <row r="22" ht="40" customHeight="1">
       <c r="A22" s="84" t="n"/>
@@ -3251,94 +3268,70 @@
       <c r="D22" s="11" t="n">
         <v>45303</v>
       </c>
-      <c r="E22" s="147" t="n"/>
-      <c r="F22" s="154" t="n"/>
-      <c r="G22" s="155" t="n"/>
-      <c r="H22" s="155" t="n"/>
-      <c r="I22" s="165" t="inlineStr">
+      <c r="E22" s="151" t="n"/>
+      <c r="F22" s="147" t="n"/>
+      <c r="G22" s="148" t="n"/>
+      <c r="H22" s="148" t="n"/>
+      <c r="I22" s="167" t="inlineStr">
         <is>
           <t>Conception SI
 (Camille Girard)
 xxx</t>
         </is>
       </c>
-      <c r="J22" s="150" t="n"/>
-      <c r="K22" s="150" t="n"/>
-      <c r="L22" s="148" t="n"/>
-      <c r="M22" s="152" t="inlineStr">
+      <c r="J22" s="154" t="n"/>
+      <c r="K22" s="154" t="n"/>
+      <c r="L22" s="152" t="n"/>
+      <c r="M22" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N22" s="150" t="n"/>
-      <c r="O22" s="150" t="n"/>
-      <c r="P22" s="150" t="n"/>
-      <c r="Q22" s="162" t="inlineStr">
+      <c r="N22" s="154" t="n"/>
+      <c r="O22" s="154" t="n"/>
+      <c r="P22" s="154" t="n"/>
+      <c r="Q22" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R22" s="150" t="n"/>
-      <c r="S22" s="150" t="n"/>
-      <c r="T22" s="150" t="n"/>
-      <c r="U22" s="147" t="n"/>
-      <c r="V22" s="166" t="inlineStr">
-        <is>
-          <t>Lean Engineering
-(Sandrine Olivencia)
-218</t>
-        </is>
-      </c>
-      <c r="W22" s="150" t="n"/>
-      <c r="X22" s="150" t="n"/>
-      <c r="Y22" s="176" t="inlineStr">
-        <is>
-          <t>Lean Engineering
-(Sandrine Olivencia)
-218</t>
-        </is>
-      </c>
-      <c r="Z22" s="150" t="n"/>
-      <c r="AA22" s="150" t="n"/>
-      <c r="AB22" s="148" t="n"/>
-      <c r="AC22" s="147" t="n"/>
-      <c r="AD22" s="166" t="inlineStr">
-        <is>
-          <t>Lean Engineering
-(Sandrine Olivencia)
-218</t>
-        </is>
-      </c>
-      <c r="AE22" s="150" t="n"/>
-      <c r="AF22" s="150" t="n"/>
-      <c r="AG22" s="176" t="inlineStr">
-        <is>
-          <t>Lean Engineering
-(Sandrine Olivencia)
-218</t>
-        </is>
-      </c>
-      <c r="AH22" s="150" t="n"/>
-      <c r="AI22" s="150" t="n"/>
-      <c r="AJ22" s="148" t="n"/>
-      <c r="AK22" s="177" t="inlineStr">
+      <c r="R22" s="154" t="n"/>
+      <c r="S22" s="154" t="n"/>
+      <c r="T22" s="154" t="n"/>
+      <c r="U22" s="151" t="n"/>
+      <c r="V22" s="147" t="n"/>
+      <c r="W22" s="148" t="n"/>
+      <c r="X22" s="148" t="n"/>
+      <c r="Y22" s="158" t="n"/>
+      <c r="Z22" s="148" t="n"/>
+      <c r="AA22" s="148" t="n"/>
+      <c r="AB22" s="152" t="n"/>
+      <c r="AC22" s="151" t="n"/>
+      <c r="AD22" s="147" t="n"/>
+      <c r="AE22" s="148" t="n"/>
+      <c r="AF22" s="148" t="n"/>
+      <c r="AG22" s="158" t="n"/>
+      <c r="AH22" s="148" t="n"/>
+      <c r="AI22" s="148" t="n"/>
+      <c r="AJ22" s="152" t="n"/>
+      <c r="AK22" s="179" t="inlineStr">
         <is>
           <t>CAP 1A/3A/Conception SI</t>
         </is>
       </c>
-      <c r="AL22" s="150" t="n"/>
-      <c r="AM22" s="150" t="n"/>
-      <c r="AN22" s="150" t="n"/>
-      <c r="AO22" s="178" t="inlineStr">
+      <c r="AL22" s="154" t="n"/>
+      <c r="AM22" s="154" t="n"/>
+      <c r="AN22" s="154" t="n"/>
+      <c r="AO22" s="180" t="inlineStr">
         <is>
           <t>Do_It circus
 (Vous et Nous)
 Hall de l'amphi JuL</t>
         </is>
       </c>
-      <c r="AP22" s="150" t="n"/>
-      <c r="AQ22" s="150" t="n"/>
-      <c r="AR22" s="150" t="n"/>
+      <c r="AP22" s="154" t="n"/>
+      <c r="AQ22" s="154" t="n"/>
+      <c r="AR22" s="154" t="n"/>
     </row>
     <row r="23" ht="40" customHeight="1">
       <c r="A23" s="84" t="n"/>
@@ -3351,72 +3344,72 @@
       <c r="D23" s="11" t="n">
         <v>45310</v>
       </c>
-      <c r="E23" s="147" t="n"/>
-      <c r="F23" s="154" t="n"/>
-      <c r="G23" s="155" t="n"/>
-      <c r="H23" s="155" t="n"/>
-      <c r="I23" s="156" t="n"/>
-      <c r="J23" s="155" t="n"/>
-      <c r="K23" s="155" t="n"/>
-      <c r="L23" s="148" t="n"/>
-      <c r="M23" s="152" t="inlineStr">
+      <c r="E23" s="151" t="n"/>
+      <c r="F23" s="147" t="n"/>
+      <c r="G23" s="148" t="n"/>
+      <c r="H23" s="148" t="n"/>
+      <c r="I23" s="158" t="n"/>
+      <c r="J23" s="148" t="n"/>
+      <c r="K23" s="148" t="n"/>
+      <c r="L23" s="152" t="n"/>
+      <c r="M23" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N23" s="150" t="n"/>
-      <c r="O23" s="150" t="n"/>
-      <c r="P23" s="150" t="n"/>
-      <c r="Q23" s="162" t="inlineStr">
+      <c r="N23" s="154" t="n"/>
+      <c r="O23" s="154" t="n"/>
+      <c r="P23" s="154" t="n"/>
+      <c r="Q23" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R23" s="150" t="n"/>
-      <c r="S23" s="150" t="n"/>
-      <c r="T23" s="150" t="n"/>
-      <c r="U23" s="147" t="n"/>
-      <c r="V23" s="160" t="inlineStr">
+      <c r="R23" s="154" t="n"/>
+      <c r="S23" s="154" t="n"/>
+      <c r="T23" s="154" t="n"/>
+      <c r="U23" s="151" t="n"/>
+      <c r="V23" s="162" t="inlineStr">
         <is>
           <t>Conception SI
 (Clément Sevy)
 xxx</t>
         </is>
       </c>
-      <c r="W23" s="150" t="n"/>
-      <c r="X23" s="150" t="n"/>
-      <c r="Y23" s="158" t="inlineStr">
+      <c r="W23" s="154" t="n"/>
+      <c r="X23" s="154" t="n"/>
+      <c r="Y23" s="160" t="inlineStr">
         <is>
           <t>point POK sprint 1
 (FB-FM-LP)
 218</t>
         </is>
       </c>
-      <c r="Z23" s="150" t="n"/>
-      <c r="AA23" s="168" t="inlineStr">
+      <c r="Z23" s="154" t="n"/>
+      <c r="AA23" s="170" t="inlineStr">
         <is>
           <t>prez MON 1
 (FB-FM-LP)
 XXX</t>
         </is>
       </c>
-      <c r="AB23" s="150" t="n"/>
-      <c r="AC23" s="147" t="n"/>
-      <c r="AD23" s="154" t="n"/>
-      <c r="AE23" s="155" t="n"/>
-      <c r="AF23" s="155" t="n"/>
-      <c r="AG23" s="156" t="n"/>
-      <c r="AH23" s="155" t="n"/>
-      <c r="AI23" s="155" t="n"/>
-      <c r="AJ23" s="148" t="n"/>
-      <c r="AK23" s="147" t="n"/>
-      <c r="AL23" s="154" t="n"/>
-      <c r="AM23" s="155" t="n"/>
-      <c r="AN23" s="155" t="n"/>
-      <c r="AO23" s="156" t="n"/>
-      <c r="AP23" s="155" t="n"/>
-      <c r="AQ23" s="155" t="n"/>
-      <c r="AR23" s="155" t="n"/>
+      <c r="AB23" s="154" t="n"/>
+      <c r="AC23" s="151" t="n"/>
+      <c r="AD23" s="147" t="n"/>
+      <c r="AE23" s="148" t="n"/>
+      <c r="AF23" s="148" t="n"/>
+      <c r="AG23" s="158" t="n"/>
+      <c r="AH23" s="148" t="n"/>
+      <c r="AI23" s="148" t="n"/>
+      <c r="AJ23" s="152" t="n"/>
+      <c r="AK23" s="151" t="n"/>
+      <c r="AL23" s="147" t="n"/>
+      <c r="AM23" s="148" t="n"/>
+      <c r="AN23" s="148" t="n"/>
+      <c r="AO23" s="158" t="n"/>
+      <c r="AP23" s="148" t="n"/>
+      <c r="AQ23" s="148" t="n"/>
+      <c r="AR23" s="148" t="n"/>
     </row>
     <row r="24" ht="40" customHeight="1">
       <c r="A24" s="84" t="n"/>
@@ -3427,50 +3420,50 @@
       <c r="D24" s="11" t="n">
         <v>45317</v>
       </c>
-      <c r="E24" s="169" t="inlineStr">
+      <c r="E24" s="171" t="inlineStr">
         <is>
           <t>filière métier</t>
         </is>
       </c>
-      <c r="F24" s="150" t="n"/>
-      <c r="G24" s="150" t="n"/>
-      <c r="H24" s="150" t="n"/>
-      <c r="I24" s="161" t="n"/>
-      <c r="J24" s="150" t="n"/>
-      <c r="K24" s="150" t="n"/>
-      <c r="L24" s="150" t="n"/>
-      <c r="M24" s="170" t="n"/>
-      <c r="N24" s="150" t="n"/>
-      <c r="O24" s="150" t="n"/>
-      <c r="P24" s="150" t="n"/>
-      <c r="Q24" s="161" t="n"/>
-      <c r="R24" s="150" t="n"/>
-      <c r="S24" s="150" t="n"/>
-      <c r="T24" s="150" t="n"/>
-      <c r="U24" s="170" t="n"/>
-      <c r="V24" s="150" t="n"/>
-      <c r="W24" s="150" t="n"/>
-      <c r="X24" s="150" t="n"/>
-      <c r="Y24" s="161" t="n"/>
-      <c r="Z24" s="150" t="n"/>
-      <c r="AA24" s="150" t="n"/>
-      <c r="AB24" s="150" t="n"/>
-      <c r="AC24" s="170" t="n"/>
-      <c r="AD24" s="150" t="n"/>
-      <c r="AE24" s="150" t="n"/>
-      <c r="AF24" s="150" t="n"/>
-      <c r="AG24" s="161" t="n"/>
-      <c r="AH24" s="150" t="n"/>
-      <c r="AI24" s="150" t="n"/>
-      <c r="AJ24" s="150" t="n"/>
-      <c r="AK24" s="170" t="n"/>
-      <c r="AL24" s="150" t="n"/>
-      <c r="AM24" s="150" t="n"/>
-      <c r="AN24" s="150" t="n"/>
-      <c r="AO24" s="161" t="n"/>
-      <c r="AP24" s="150" t="n"/>
-      <c r="AQ24" s="150" t="n"/>
-      <c r="AR24" s="150" t="n"/>
+      <c r="F24" s="154" t="n"/>
+      <c r="G24" s="154" t="n"/>
+      <c r="H24" s="154" t="n"/>
+      <c r="I24" s="163" t="n"/>
+      <c r="J24" s="154" t="n"/>
+      <c r="K24" s="154" t="n"/>
+      <c r="L24" s="154" t="n"/>
+      <c r="M24" s="172" t="n"/>
+      <c r="N24" s="154" t="n"/>
+      <c r="O24" s="154" t="n"/>
+      <c r="P24" s="154" t="n"/>
+      <c r="Q24" s="163" t="n"/>
+      <c r="R24" s="154" t="n"/>
+      <c r="S24" s="154" t="n"/>
+      <c r="T24" s="154" t="n"/>
+      <c r="U24" s="172" t="n"/>
+      <c r="V24" s="154" t="n"/>
+      <c r="W24" s="154" t="n"/>
+      <c r="X24" s="154" t="n"/>
+      <c r="Y24" s="163" t="n"/>
+      <c r="Z24" s="154" t="n"/>
+      <c r="AA24" s="154" t="n"/>
+      <c r="AB24" s="154" t="n"/>
+      <c r="AC24" s="172" t="n"/>
+      <c r="AD24" s="154" t="n"/>
+      <c r="AE24" s="154" t="n"/>
+      <c r="AF24" s="154" t="n"/>
+      <c r="AG24" s="163" t="n"/>
+      <c r="AH24" s="154" t="n"/>
+      <c r="AI24" s="154" t="n"/>
+      <c r="AJ24" s="154" t="n"/>
+      <c r="AK24" s="172" t="n"/>
+      <c r="AL24" s="154" t="n"/>
+      <c r="AM24" s="154" t="n"/>
+      <c r="AN24" s="154" t="n"/>
+      <c r="AO24" s="163" t="n"/>
+      <c r="AP24" s="154" t="n"/>
+      <c r="AQ24" s="154" t="n"/>
+      <c r="AR24" s="154" t="n"/>
     </row>
     <row r="25" ht="40" customHeight="1">
       <c r="A25" s="84" t="n"/>
@@ -3481,50 +3474,50 @@
       <c r="D25" s="11" t="n">
         <v>45324</v>
       </c>
-      <c r="E25" s="169" t="inlineStr">
+      <c r="E25" s="171" t="inlineStr">
         <is>
           <t>filière métier</t>
         </is>
       </c>
-      <c r="F25" s="150" t="n"/>
-      <c r="G25" s="150" t="n"/>
-      <c r="H25" s="150" t="n"/>
-      <c r="I25" s="161" t="n"/>
-      <c r="J25" s="150" t="n"/>
-      <c r="K25" s="150" t="n"/>
-      <c r="L25" s="150" t="n"/>
-      <c r="M25" s="170" t="n"/>
-      <c r="N25" s="150" t="n"/>
-      <c r="O25" s="150" t="n"/>
-      <c r="P25" s="150" t="n"/>
-      <c r="Q25" s="161" t="n"/>
-      <c r="R25" s="150" t="n"/>
-      <c r="S25" s="150" t="n"/>
-      <c r="T25" s="150" t="n"/>
-      <c r="U25" s="170" t="n"/>
-      <c r="V25" s="150" t="n"/>
-      <c r="W25" s="150" t="n"/>
-      <c r="X25" s="150" t="n"/>
-      <c r="Y25" s="161" t="n"/>
-      <c r="Z25" s="150" t="n"/>
-      <c r="AA25" s="150" t="n"/>
-      <c r="AB25" s="150" t="n"/>
-      <c r="AC25" s="170" t="n"/>
-      <c r="AD25" s="150" t="n"/>
-      <c r="AE25" s="150" t="n"/>
-      <c r="AF25" s="150" t="n"/>
-      <c r="AG25" s="161" t="n"/>
-      <c r="AH25" s="150" t="n"/>
-      <c r="AI25" s="150" t="n"/>
-      <c r="AJ25" s="150" t="n"/>
-      <c r="AK25" s="170" t="n"/>
-      <c r="AL25" s="150" t="n"/>
-      <c r="AM25" s="150" t="n"/>
-      <c r="AN25" s="150" t="n"/>
-      <c r="AO25" s="161" t="n"/>
-      <c r="AP25" s="150" t="n"/>
-      <c r="AQ25" s="150" t="n"/>
-      <c r="AR25" s="150" t="n"/>
+      <c r="F25" s="154" t="n"/>
+      <c r="G25" s="154" t="n"/>
+      <c r="H25" s="154" t="n"/>
+      <c r="I25" s="163" t="n"/>
+      <c r="J25" s="154" t="n"/>
+      <c r="K25" s="154" t="n"/>
+      <c r="L25" s="154" t="n"/>
+      <c r="M25" s="172" t="n"/>
+      <c r="N25" s="154" t="n"/>
+      <c r="O25" s="154" t="n"/>
+      <c r="P25" s="154" t="n"/>
+      <c r="Q25" s="163" t="n"/>
+      <c r="R25" s="154" t="n"/>
+      <c r="S25" s="154" t="n"/>
+      <c r="T25" s="154" t="n"/>
+      <c r="U25" s="172" t="n"/>
+      <c r="V25" s="154" t="n"/>
+      <c r="W25" s="154" t="n"/>
+      <c r="X25" s="154" t="n"/>
+      <c r="Y25" s="163" t="n"/>
+      <c r="Z25" s="154" t="n"/>
+      <c r="AA25" s="154" t="n"/>
+      <c r="AB25" s="154" t="n"/>
+      <c r="AC25" s="172" t="n"/>
+      <c r="AD25" s="154" t="n"/>
+      <c r="AE25" s="154" t="n"/>
+      <c r="AF25" s="154" t="n"/>
+      <c r="AG25" s="163" t="n"/>
+      <c r="AH25" s="154" t="n"/>
+      <c r="AI25" s="154" t="n"/>
+      <c r="AJ25" s="154" t="n"/>
+      <c r="AK25" s="172" t="n"/>
+      <c r="AL25" s="154" t="n"/>
+      <c r="AM25" s="154" t="n"/>
+      <c r="AN25" s="154" t="n"/>
+      <c r="AO25" s="163" t="n"/>
+      <c r="AP25" s="154" t="n"/>
+      <c r="AQ25" s="154" t="n"/>
+      <c r="AR25" s="154" t="n"/>
     </row>
     <row r="26" ht="40" customHeight="1">
       <c r="A26" s="85" t="n"/>
@@ -3535,50 +3528,50 @@
       <c r="D26" s="23" t="n">
         <v>45331</v>
       </c>
-      <c r="E26" s="172" t="inlineStr">
+      <c r="E26" s="174" t="inlineStr">
         <is>
           <t>tronc commun 3A</t>
         </is>
       </c>
-      <c r="F26" s="150" t="n"/>
-      <c r="G26" s="150" t="n"/>
-      <c r="H26" s="150" t="n"/>
-      <c r="I26" s="161" t="n"/>
-      <c r="J26" s="150" t="n"/>
-      <c r="K26" s="150" t="n"/>
-      <c r="L26" s="150" t="n"/>
-      <c r="M26" s="170" t="n"/>
-      <c r="N26" s="150" t="n"/>
-      <c r="O26" s="150" t="n"/>
-      <c r="P26" s="150" t="n"/>
-      <c r="Q26" s="161" t="n"/>
-      <c r="R26" s="150" t="n"/>
-      <c r="S26" s="150" t="n"/>
-      <c r="T26" s="150" t="n"/>
-      <c r="U26" s="170" t="n"/>
-      <c r="V26" s="150" t="n"/>
-      <c r="W26" s="150" t="n"/>
-      <c r="X26" s="150" t="n"/>
-      <c r="Y26" s="161" t="n"/>
-      <c r="Z26" s="150" t="n"/>
-      <c r="AA26" s="150" t="n"/>
-      <c r="AB26" s="150" t="n"/>
-      <c r="AC26" s="170" t="n"/>
-      <c r="AD26" s="150" t="n"/>
-      <c r="AE26" s="150" t="n"/>
-      <c r="AF26" s="150" t="n"/>
-      <c r="AG26" s="161" t="n"/>
-      <c r="AH26" s="150" t="n"/>
-      <c r="AI26" s="150" t="n"/>
-      <c r="AJ26" s="150" t="n"/>
-      <c r="AK26" s="170" t="n"/>
-      <c r="AL26" s="150" t="n"/>
-      <c r="AM26" s="150" t="n"/>
-      <c r="AN26" s="150" t="n"/>
-      <c r="AO26" s="161" t="n"/>
-      <c r="AP26" s="150" t="n"/>
-      <c r="AQ26" s="150" t="n"/>
-      <c r="AR26" s="150" t="n"/>
+      <c r="F26" s="154" t="n"/>
+      <c r="G26" s="154" t="n"/>
+      <c r="H26" s="154" t="n"/>
+      <c r="I26" s="163" t="n"/>
+      <c r="J26" s="154" t="n"/>
+      <c r="K26" s="154" t="n"/>
+      <c r="L26" s="154" t="n"/>
+      <c r="M26" s="172" t="n"/>
+      <c r="N26" s="154" t="n"/>
+      <c r="O26" s="154" t="n"/>
+      <c r="P26" s="154" t="n"/>
+      <c r="Q26" s="163" t="n"/>
+      <c r="R26" s="154" t="n"/>
+      <c r="S26" s="154" t="n"/>
+      <c r="T26" s="154" t="n"/>
+      <c r="U26" s="172" t="n"/>
+      <c r="V26" s="154" t="n"/>
+      <c r="W26" s="154" t="n"/>
+      <c r="X26" s="154" t="n"/>
+      <c r="Y26" s="163" t="n"/>
+      <c r="Z26" s="154" t="n"/>
+      <c r="AA26" s="154" t="n"/>
+      <c r="AB26" s="154" t="n"/>
+      <c r="AC26" s="172" t="n"/>
+      <c r="AD26" s="154" t="n"/>
+      <c r="AE26" s="154" t="n"/>
+      <c r="AF26" s="154" t="n"/>
+      <c r="AG26" s="163" t="n"/>
+      <c r="AH26" s="154" t="n"/>
+      <c r="AI26" s="154" t="n"/>
+      <c r="AJ26" s="154" t="n"/>
+      <c r="AK26" s="172" t="n"/>
+      <c r="AL26" s="154" t="n"/>
+      <c r="AM26" s="154" t="n"/>
+      <c r="AN26" s="154" t="n"/>
+      <c r="AO26" s="163" t="n"/>
+      <c r="AP26" s="154" t="n"/>
+      <c r="AQ26" s="154" t="n"/>
+      <c r="AR26" s="154" t="n"/>
     </row>
     <row r="27" ht="40" customHeight="1">
       <c r="A27" s="117" t="inlineStr">
@@ -3595,84 +3588,84 @@
       <c r="D27" s="25" t="n">
         <v>45338</v>
       </c>
-      <c r="E27" s="147" t="n"/>
-      <c r="F27" s="154" t="n"/>
-      <c r="G27" s="155" t="n"/>
-      <c r="H27" s="155" t="n"/>
-      <c r="I27" s="156" t="n"/>
-      <c r="J27" s="155" t="n"/>
-      <c r="K27" s="155" t="n"/>
-      <c r="L27" s="148" t="n"/>
-      <c r="M27" s="152" t="inlineStr">
+      <c r="E27" s="151" t="n"/>
+      <c r="F27" s="147" t="n"/>
+      <c r="G27" s="148" t="n"/>
+      <c r="H27" s="148" t="n"/>
+      <c r="I27" s="158" t="n"/>
+      <c r="J27" s="148" t="n"/>
+      <c r="K27" s="148" t="n"/>
+      <c r="L27" s="152" t="n"/>
+      <c r="M27" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N27" s="150" t="n"/>
-      <c r="O27" s="150" t="n"/>
-      <c r="P27" s="150" t="n"/>
-      <c r="Q27" s="162" t="inlineStr">
+      <c r="N27" s="154" t="n"/>
+      <c r="O27" s="154" t="n"/>
+      <c r="P27" s="154" t="n"/>
+      <c r="Q27" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R27" s="150" t="n"/>
-      <c r="S27" s="150" t="n"/>
-      <c r="T27" s="150" t="n"/>
-      <c r="U27" s="147" t="n"/>
-      <c r="V27" s="159" t="n"/>
-      <c r="W27" s="155" t="n"/>
-      <c r="X27" s="155" t="n"/>
-      <c r="Y27" s="158" t="inlineStr">
+      <c r="R27" s="154" t="n"/>
+      <c r="S27" s="154" t="n"/>
+      <c r="T27" s="154" t="n"/>
+      <c r="U27" s="151" t="n"/>
+      <c r="V27" s="161" t="n"/>
+      <c r="W27" s="148" t="n"/>
+      <c r="X27" s="148" t="n"/>
+      <c r="Y27" s="160" t="inlineStr">
         <is>
           <t>POK&amp;MON
 (FB-FM-LP)
 XXX</t>
         </is>
       </c>
-      <c r="Z27" s="150" t="n"/>
-      <c r="AA27" s="148" t="n"/>
-      <c r="AB27" s="148" t="n"/>
-      <c r="AC27" s="147" t="n"/>
-      <c r="AD27" s="174" t="inlineStr">
+      <c r="Z27" s="154" t="n"/>
+      <c r="AA27" s="152" t="n"/>
+      <c r="AB27" s="152" t="n"/>
+      <c r="AC27" s="151" t="n"/>
+      <c r="AD27" s="176" t="inlineStr">
         <is>
           <t>Réseaux
 (Patrick Girard)
 XXX</t>
         </is>
       </c>
-      <c r="AE27" s="150" t="n"/>
-      <c r="AF27" s="150" t="n"/>
-      <c r="AG27" s="175" t="inlineStr">
+      <c r="AE27" s="154" t="n"/>
+      <c r="AF27" s="154" t="n"/>
+      <c r="AG27" s="177" t="inlineStr">
         <is>
           <t>Réseaux
 (Patrick Girard)
 XXX</t>
         </is>
       </c>
-      <c r="AH27" s="150" t="n"/>
-      <c r="AI27" s="150" t="n"/>
-      <c r="AJ27" s="148" t="n"/>
-      <c r="AK27" s="147" t="n"/>
-      <c r="AL27" s="166" t="inlineStr">
+      <c r="AH27" s="154" t="n"/>
+      <c r="AI27" s="154" t="n"/>
+      <c r="AJ27" s="152" t="n"/>
+      <c r="AK27" s="151" t="n"/>
+      <c r="AL27" s="168" t="inlineStr">
         <is>
           <t>Gestion de projet avancé
 (Miguel Etilé)
 XXX</t>
         </is>
       </c>
-      <c r="AM27" s="150" t="n"/>
-      <c r="AN27" s="150" t="n"/>
-      <c r="AO27" s="176" t="inlineStr">
+      <c r="AM27" s="154" t="n"/>
+      <c r="AN27" s="154" t="n"/>
+      <c r="AO27" s="178" t="inlineStr">
         <is>
           <t>Gestion de projet avancé
 (Miguel Etilé)
 XXX</t>
         </is>
       </c>
-      <c r="AP27" s="150" t="n"/>
-      <c r="AQ27" s="150" t="n"/>
-      <c r="AR27" s="148" t="n"/>
+      <c r="AP27" s="154" t="n"/>
+      <c r="AQ27" s="154" t="n"/>
+      <c r="AR27" s="152" t="n"/>
     </row>
     <row r="28" ht="40" customHeight="1">
       <c r="A28" s="84" t="n"/>
@@ -3685,78 +3678,78 @@
       <c r="D28" s="11" t="n">
         <v>45345</v>
       </c>
-      <c r="E28" s="147" t="n"/>
-      <c r="F28" s="166" t="inlineStr">
+      <c r="E28" s="151" t="n"/>
+      <c r="F28" s="168" t="inlineStr">
         <is>
           <t>Gestion de projet avancé
 (Miguel Etilé)
 XXX</t>
         </is>
       </c>
-      <c r="G28" s="150" t="n"/>
-      <c r="H28" s="150" t="n"/>
-      <c r="I28" s="176" t="inlineStr">
+      <c r="G28" s="154" t="n"/>
+      <c r="H28" s="154" t="n"/>
+      <c r="I28" s="178" t="inlineStr">
         <is>
           <t>Gestion de projet avancé
 (Miguel Etilé)
 XXX</t>
         </is>
       </c>
-      <c r="J28" s="150" t="n"/>
-      <c r="K28" s="150" t="n"/>
-      <c r="L28" s="148" t="n"/>
-      <c r="M28" s="152" t="inlineStr">
+      <c r="J28" s="154" t="n"/>
+      <c r="K28" s="154" t="n"/>
+      <c r="L28" s="152" t="n"/>
+      <c r="M28" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N28" s="150" t="n"/>
-      <c r="O28" s="150" t="n"/>
-      <c r="P28" s="150" t="n"/>
-      <c r="Q28" s="162" t="inlineStr">
+      <c r="N28" s="154" t="n"/>
+      <c r="O28" s="154" t="n"/>
+      <c r="P28" s="154" t="n"/>
+      <c r="Q28" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R28" s="150" t="n"/>
-      <c r="S28" s="150" t="n"/>
-      <c r="T28" s="150" t="n"/>
-      <c r="U28" s="147" t="n"/>
-      <c r="V28" s="154" t="n"/>
-      <c r="W28" s="155" t="n"/>
-      <c r="X28" s="155" t="n"/>
-      <c r="Y28" s="153" t="n"/>
-      <c r="Z28" s="148" t="n"/>
-      <c r="AA28" s="148" t="n"/>
-      <c r="AB28" s="148" t="n"/>
-      <c r="AC28" s="147" t="n"/>
-      <c r="AD28" s="174" t="inlineStr">
+      <c r="R28" s="154" t="n"/>
+      <c r="S28" s="154" t="n"/>
+      <c r="T28" s="154" t="n"/>
+      <c r="U28" s="151" t="n"/>
+      <c r="V28" s="147" t="n"/>
+      <c r="W28" s="148" t="n"/>
+      <c r="X28" s="148" t="n"/>
+      <c r="Y28" s="157" t="n"/>
+      <c r="Z28" s="152" t="n"/>
+      <c r="AA28" s="152" t="n"/>
+      <c r="AB28" s="152" t="n"/>
+      <c r="AC28" s="151" t="n"/>
+      <c r="AD28" s="176" t="inlineStr">
         <is>
           <t>Réseaux
 (Patrick Girard)
 XXX</t>
         </is>
       </c>
-      <c r="AE28" s="150" t="n"/>
-      <c r="AF28" s="150" t="n"/>
-      <c r="AG28" s="175" t="inlineStr">
+      <c r="AE28" s="154" t="n"/>
+      <c r="AF28" s="154" t="n"/>
+      <c r="AG28" s="177" t="inlineStr">
         <is>
           <t>Réseaux
 (Patrick Girard)
 XXX</t>
         </is>
       </c>
-      <c r="AH28" s="150" t="n"/>
-      <c r="AI28" s="150" t="n"/>
-      <c r="AJ28" s="148" t="n"/>
-      <c r="AK28" s="147" t="n"/>
-      <c r="AL28" s="148" t="n"/>
-      <c r="AM28" s="148" t="n"/>
-      <c r="AN28" s="148" t="n"/>
-      <c r="AO28" s="153" t="n"/>
-      <c r="AP28" s="148" t="n"/>
-      <c r="AQ28" s="148" t="n"/>
-      <c r="AR28" s="148" t="n"/>
+      <c r="AH28" s="154" t="n"/>
+      <c r="AI28" s="154" t="n"/>
+      <c r="AJ28" s="152" t="n"/>
+      <c r="AK28" s="151" t="n"/>
+      <c r="AL28" s="152" t="n"/>
+      <c r="AM28" s="152" t="n"/>
+      <c r="AN28" s="152" t="n"/>
+      <c r="AO28" s="157" t="n"/>
+      <c r="AP28" s="152" t="n"/>
+      <c r="AQ28" s="152" t="n"/>
+      <c r="AR28" s="152" t="n"/>
     </row>
     <row r="29" ht="40" customHeight="1">
       <c r="A29" s="84" t="n"/>
@@ -3769,66 +3762,90 @@
       <c r="D29" s="11" t="n">
         <v>45352</v>
       </c>
-      <c r="E29" s="147" t="n"/>
-      <c r="F29" s="154" t="n"/>
-      <c r="G29" s="155" t="n"/>
-      <c r="H29" s="155" t="n"/>
-      <c r="I29" s="153" t="n"/>
-      <c r="J29" s="148" t="n"/>
-      <c r="K29" s="148" t="n"/>
-      <c r="L29" s="148" t="n"/>
-      <c r="M29" s="152" t="inlineStr">
+      <c r="E29" s="151" t="n"/>
+      <c r="F29" s="147" t="n"/>
+      <c r="G29" s="148" t="n"/>
+      <c r="H29" s="148" t="n"/>
+      <c r="I29" s="157" t="n"/>
+      <c r="J29" s="152" t="n"/>
+      <c r="K29" s="152" t="n"/>
+      <c r="L29" s="152" t="n"/>
+      <c r="M29" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N29" s="150" t="n"/>
-      <c r="O29" s="150" t="n"/>
-      <c r="P29" s="150" t="n"/>
-      <c r="Q29" s="162" t="inlineStr">
+      <c r="N29" s="154" t="n"/>
+      <c r="O29" s="154" t="n"/>
+      <c r="P29" s="154" t="n"/>
+      <c r="Q29" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R29" s="150" t="n"/>
-      <c r="S29" s="150" t="n"/>
-      <c r="T29" s="150" t="n"/>
-      <c r="U29" s="147" t="n"/>
-      <c r="V29" s="148" t="n"/>
-      <c r="W29" s="163" t="inlineStr">
+      <c r="R29" s="154" t="n"/>
+      <c r="S29" s="154" t="n"/>
+      <c r="T29" s="154" t="n"/>
+      <c r="U29" s="151" t="n"/>
+      <c r="V29" s="152" t="n"/>
+      <c r="W29" s="165" t="inlineStr">
         <is>
           <t>point POK sprint 1
 (FB-FM-LP)
 XXX</t>
         </is>
       </c>
-      <c r="X29" s="150" t="n"/>
-      <c r="Y29" s="164" t="inlineStr">
+      <c r="X29" s="154" t="n"/>
+      <c r="Y29" s="166" t="inlineStr">
         <is>
           <t>prez MON 1
 (FB-FM-LP)
 XXX</t>
         </is>
       </c>
-      <c r="Z29" s="150" t="n"/>
-      <c r="AA29" s="148" t="n"/>
-      <c r="AB29" s="148" t="n"/>
-      <c r="AC29" s="147" t="n"/>
-      <c r="AD29" s="148" t="n"/>
-      <c r="AE29" s="148" t="n"/>
-      <c r="AF29" s="148" t="n"/>
-      <c r="AG29" s="153" t="n"/>
-      <c r="AH29" s="148" t="n"/>
-      <c r="AI29" s="148" t="n"/>
-      <c r="AJ29" s="148" t="n"/>
-      <c r="AK29" s="147" t="n"/>
-      <c r="AL29" s="148" t="n"/>
-      <c r="AM29" s="148" t="n"/>
-      <c r="AN29" s="148" t="n"/>
-      <c r="AO29" s="153" t="n"/>
-      <c r="AP29" s="148" t="n"/>
-      <c r="AQ29" s="148" t="n"/>
-      <c r="AR29" s="148" t="n"/>
+      <c r="Z29" s="154" t="n"/>
+      <c r="AA29" s="152" t="n"/>
+      <c r="AB29" s="152" t="n"/>
+      <c r="AC29" s="151" t="n"/>
+      <c r="AD29" s="181" t="inlineStr">
+        <is>
+          <t>Lean Engineering
+(Sandrine Olivencia)
+218</t>
+        </is>
+      </c>
+      <c r="AE29" s="154" t="n"/>
+      <c r="AF29" s="154" t="n"/>
+      <c r="AG29" s="182" t="inlineStr">
+        <is>
+          <t>Lean Engineering
+(Sandrine Olivencia)
+218</t>
+        </is>
+      </c>
+      <c r="AH29" s="154" t="n"/>
+      <c r="AI29" s="154" t="n"/>
+      <c r="AJ29" s="152" t="n"/>
+      <c r="AK29" s="151" t="n"/>
+      <c r="AL29" s="181" t="inlineStr">
+        <is>
+          <t>Lean Engineering
+(Sandrine Olivencia)
+218</t>
+        </is>
+      </c>
+      <c r="AM29" s="154" t="n"/>
+      <c r="AN29" s="154" t="n"/>
+      <c r="AO29" s="182" t="inlineStr">
+        <is>
+          <t>Lean Engineering
+(Sandrine Olivencia)
+218</t>
+        </is>
+      </c>
+      <c r="AP29" s="154" t="n"/>
+      <c r="AQ29" s="154" t="n"/>
+      <c r="AR29" s="152" t="n"/>
     </row>
     <row r="30" ht="40" customHeight="1">
       <c r="A30" s="84" t="n"/>
@@ -3839,50 +3856,50 @@
       <c r="D30" s="11" t="n">
         <v>45359</v>
       </c>
-      <c r="E30" s="171" t="inlineStr">
+      <c r="E30" s="173" t="inlineStr">
         <is>
           <t>vacances</t>
         </is>
       </c>
-      <c r="F30" s="150" t="n"/>
-      <c r="G30" s="150" t="n"/>
-      <c r="H30" s="150" t="n"/>
-      <c r="I30" s="161" t="n"/>
-      <c r="J30" s="150" t="n"/>
-      <c r="K30" s="150" t="n"/>
-      <c r="L30" s="150" t="n"/>
-      <c r="M30" s="170" t="n"/>
-      <c r="N30" s="150" t="n"/>
-      <c r="O30" s="150" t="n"/>
-      <c r="P30" s="150" t="n"/>
-      <c r="Q30" s="161" t="n"/>
-      <c r="R30" s="150" t="n"/>
-      <c r="S30" s="150" t="n"/>
-      <c r="T30" s="150" t="n"/>
-      <c r="U30" s="170" t="n"/>
-      <c r="V30" s="150" t="n"/>
-      <c r="W30" s="150" t="n"/>
-      <c r="X30" s="150" t="n"/>
-      <c r="Y30" s="161" t="n"/>
-      <c r="Z30" s="150" t="n"/>
-      <c r="AA30" s="150" t="n"/>
-      <c r="AB30" s="150" t="n"/>
-      <c r="AC30" s="170" t="n"/>
-      <c r="AD30" s="150" t="n"/>
-      <c r="AE30" s="150" t="n"/>
-      <c r="AF30" s="150" t="n"/>
-      <c r="AG30" s="161" t="n"/>
-      <c r="AH30" s="150" t="n"/>
-      <c r="AI30" s="150" t="n"/>
-      <c r="AJ30" s="150" t="n"/>
-      <c r="AK30" s="170" t="n"/>
-      <c r="AL30" s="150" t="n"/>
-      <c r="AM30" s="150" t="n"/>
-      <c r="AN30" s="150" t="n"/>
-      <c r="AO30" s="161" t="n"/>
-      <c r="AP30" s="150" t="n"/>
-      <c r="AQ30" s="150" t="n"/>
-      <c r="AR30" s="150" t="n"/>
+      <c r="F30" s="154" t="n"/>
+      <c r="G30" s="154" t="n"/>
+      <c r="H30" s="154" t="n"/>
+      <c r="I30" s="163" t="n"/>
+      <c r="J30" s="154" t="n"/>
+      <c r="K30" s="154" t="n"/>
+      <c r="L30" s="154" t="n"/>
+      <c r="M30" s="172" t="n"/>
+      <c r="N30" s="154" t="n"/>
+      <c r="O30" s="154" t="n"/>
+      <c r="P30" s="154" t="n"/>
+      <c r="Q30" s="163" t="n"/>
+      <c r="R30" s="154" t="n"/>
+      <c r="S30" s="154" t="n"/>
+      <c r="T30" s="154" t="n"/>
+      <c r="U30" s="172" t="n"/>
+      <c r="V30" s="154" t="n"/>
+      <c r="W30" s="154" t="n"/>
+      <c r="X30" s="154" t="n"/>
+      <c r="Y30" s="163" t="n"/>
+      <c r="Z30" s="154" t="n"/>
+      <c r="AA30" s="154" t="n"/>
+      <c r="AB30" s="154" t="n"/>
+      <c r="AC30" s="172" t="n"/>
+      <c r="AD30" s="154" t="n"/>
+      <c r="AE30" s="154" t="n"/>
+      <c r="AF30" s="154" t="n"/>
+      <c r="AG30" s="163" t="n"/>
+      <c r="AH30" s="154" t="n"/>
+      <c r="AI30" s="154" t="n"/>
+      <c r="AJ30" s="154" t="n"/>
+      <c r="AK30" s="172" t="n"/>
+      <c r="AL30" s="154" t="n"/>
+      <c r="AM30" s="154" t="n"/>
+      <c r="AN30" s="154" t="n"/>
+      <c r="AO30" s="163" t="n"/>
+      <c r="AP30" s="154" t="n"/>
+      <c r="AQ30" s="154" t="n"/>
+      <c r="AR30" s="154" t="n"/>
     </row>
     <row r="31" ht="40" customHeight="1">
       <c r="A31" s="84" t="n"/>
@@ -3895,78 +3912,78 @@
       <c r="D31" s="11" t="n">
         <v>45366</v>
       </c>
-      <c r="E31" s="147" t="n"/>
-      <c r="F31" s="154" t="n"/>
-      <c r="G31" s="155" t="n"/>
-      <c r="H31" s="155" t="n"/>
-      <c r="I31" s="156" t="n"/>
-      <c r="J31" s="155" t="n"/>
-      <c r="K31" s="155" t="n"/>
-      <c r="L31" s="148" t="n"/>
-      <c r="M31" s="152" t="inlineStr">
+      <c r="E31" s="151" t="n"/>
+      <c r="F31" s="147" t="n"/>
+      <c r="G31" s="148" t="n"/>
+      <c r="H31" s="148" t="n"/>
+      <c r="I31" s="158" t="n"/>
+      <c r="J31" s="148" t="n"/>
+      <c r="K31" s="148" t="n"/>
+      <c r="L31" s="152" t="n"/>
+      <c r="M31" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N31" s="150" t="n"/>
-      <c r="O31" s="150" t="n"/>
-      <c r="P31" s="150" t="n"/>
-      <c r="Q31" s="162" t="inlineStr">
+      <c r="N31" s="154" t="n"/>
+      <c r="O31" s="154" t="n"/>
+      <c r="P31" s="154" t="n"/>
+      <c r="Q31" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R31" s="150" t="n"/>
-      <c r="S31" s="150" t="n"/>
-      <c r="T31" s="150" t="n"/>
-      <c r="U31" s="147" t="n"/>
-      <c r="V31" s="159" t="n"/>
-      <c r="W31" s="155" t="n"/>
-      <c r="X31" s="155" t="n"/>
-      <c r="Y31" s="153" t="n"/>
-      <c r="Z31" s="148" t="n"/>
-      <c r="AA31" s="148" t="n"/>
-      <c r="AB31" s="148" t="n"/>
-      <c r="AC31" s="147" t="n"/>
-      <c r="AD31" s="179" t="inlineStr">
+      <c r="R31" s="154" t="n"/>
+      <c r="S31" s="154" t="n"/>
+      <c r="T31" s="154" t="n"/>
+      <c r="U31" s="151" t="n"/>
+      <c r="V31" s="161" t="n"/>
+      <c r="W31" s="148" t="n"/>
+      <c r="X31" s="148" t="n"/>
+      <c r="Y31" s="157" t="n"/>
+      <c r="Z31" s="152" t="n"/>
+      <c r="AA31" s="152" t="n"/>
+      <c r="AB31" s="152" t="n"/>
+      <c r="AC31" s="151" t="n"/>
+      <c r="AD31" s="183" t="inlineStr">
         <is>
           <t>People Analytics
 (Mario Passalacqua)
 XXX</t>
         </is>
       </c>
-      <c r="AE31" s="150" t="n"/>
-      <c r="AF31" s="150" t="n"/>
-      <c r="AG31" s="180" t="inlineStr">
+      <c r="AE31" s="154" t="n"/>
+      <c r="AF31" s="154" t="n"/>
+      <c r="AG31" s="184" t="inlineStr">
         <is>
           <t>People Analytics
 (Mario Passalacqua)
 XXX</t>
         </is>
       </c>
-      <c r="AH31" s="150" t="n"/>
-      <c r="AI31" s="150" t="n"/>
-      <c r="AJ31" s="181" t="n"/>
-      <c r="AK31" s="147" t="n"/>
-      <c r="AL31" s="179" t="inlineStr">
+      <c r="AH31" s="154" t="n"/>
+      <c r="AI31" s="154" t="n"/>
+      <c r="AJ31" s="185" t="n"/>
+      <c r="AK31" s="151" t="n"/>
+      <c r="AL31" s="183" t="inlineStr">
         <is>
           <t>People Analytics
 (Mario Passalacqua)
 XXX</t>
         </is>
       </c>
-      <c r="AM31" s="150" t="n"/>
-      <c r="AN31" s="150" t="n"/>
-      <c r="AO31" s="180" t="inlineStr">
+      <c r="AM31" s="154" t="n"/>
+      <c r="AN31" s="154" t="n"/>
+      <c r="AO31" s="184" t="inlineStr">
         <is>
           <t>People Analytics
 (Mario Passalacqua)
 XXX</t>
         </is>
       </c>
-      <c r="AP31" s="150" t="n"/>
-      <c r="AQ31" s="150" t="n"/>
-      <c r="AR31" s="181" t="n"/>
+      <c r="AP31" s="154" t="n"/>
+      <c r="AQ31" s="154" t="n"/>
+      <c r="AR31" s="185" t="n"/>
     </row>
     <row r="32" ht="40" customHeight="1">
       <c r="A32" s="84" t="n"/>
@@ -3979,66 +3996,66 @@
       <c r="D32" s="11" t="n">
         <v>45373</v>
       </c>
-      <c r="E32" s="147" t="n"/>
-      <c r="F32" s="154" t="n"/>
-      <c r="G32" s="155" t="n"/>
-      <c r="H32" s="155" t="n"/>
-      <c r="I32" s="153" t="n"/>
-      <c r="J32" s="148" t="n"/>
-      <c r="K32" s="148" t="n"/>
-      <c r="L32" s="148" t="n"/>
-      <c r="M32" s="152" t="inlineStr">
+      <c r="E32" s="151" t="n"/>
+      <c r="F32" s="147" t="n"/>
+      <c r="G32" s="148" t="n"/>
+      <c r="H32" s="148" t="n"/>
+      <c r="I32" s="157" t="n"/>
+      <c r="J32" s="152" t="n"/>
+      <c r="K32" s="152" t="n"/>
+      <c r="L32" s="152" t="n"/>
+      <c r="M32" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N32" s="150" t="n"/>
-      <c r="O32" s="150" t="n"/>
-      <c r="P32" s="150" t="n"/>
-      <c r="Q32" s="162" t="inlineStr">
+      <c r="N32" s="154" t="n"/>
+      <c r="O32" s="154" t="n"/>
+      <c r="P32" s="154" t="n"/>
+      <c r="Q32" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R32" s="150" t="n"/>
-      <c r="S32" s="150" t="n"/>
-      <c r="T32" s="150" t="n"/>
-      <c r="U32" s="147" t="n"/>
-      <c r="V32" s="154" t="n"/>
-      <c r="W32" s="155" t="n"/>
-      <c r="X32" s="155" t="n"/>
-      <c r="Y32" s="153" t="n"/>
-      <c r="Z32" s="148" t="n"/>
-      <c r="AA32" s="148" t="n"/>
-      <c r="AB32" s="148" t="n"/>
-      <c r="AC32" s="147" t="n"/>
-      <c r="AD32" s="182" t="inlineStr">
+      <c r="R32" s="154" t="n"/>
+      <c r="S32" s="154" t="n"/>
+      <c r="T32" s="154" t="n"/>
+      <c r="U32" s="151" t="n"/>
+      <c r="V32" s="147" t="n"/>
+      <c r="W32" s="148" t="n"/>
+      <c r="X32" s="148" t="n"/>
+      <c r="Y32" s="157" t="n"/>
+      <c r="Z32" s="152" t="n"/>
+      <c r="AA32" s="152" t="n"/>
+      <c r="AB32" s="152" t="n"/>
+      <c r="AC32" s="151" t="n"/>
+      <c r="AD32" s="186" t="inlineStr">
         <is>
           <t>IT et dynamique organisationnelle
 (change management)
 Oresys</t>
         </is>
       </c>
-      <c r="AE32" s="150" t="n"/>
-      <c r="AF32" s="150" t="n"/>
-      <c r="AG32" s="183" t="inlineStr">
+      <c r="AE32" s="154" t="n"/>
+      <c r="AF32" s="154" t="n"/>
+      <c r="AG32" s="187" t="inlineStr">
         <is>
           <t>IT et dynamique organisationnelle
 (change management)
 Oresys</t>
         </is>
       </c>
-      <c r="AH32" s="150" t="n"/>
-      <c r="AI32" s="150" t="n"/>
-      <c r="AJ32" s="181" t="n"/>
-      <c r="AK32" s="147" t="n"/>
-      <c r="AL32" s="148" t="n"/>
-      <c r="AM32" s="148" t="n"/>
-      <c r="AN32" s="148" t="n"/>
-      <c r="AO32" s="153" t="n"/>
-      <c r="AP32" s="148" t="n"/>
-      <c r="AQ32" s="148" t="n"/>
-      <c r="AR32" s="148" t="n"/>
+      <c r="AH32" s="154" t="n"/>
+      <c r="AI32" s="154" t="n"/>
+      <c r="AJ32" s="185" t="n"/>
+      <c r="AK32" s="151" t="n"/>
+      <c r="AL32" s="152" t="n"/>
+      <c r="AM32" s="152" t="n"/>
+      <c r="AN32" s="152" t="n"/>
+      <c r="AO32" s="157" t="n"/>
+      <c r="AP32" s="152" t="n"/>
+      <c r="AQ32" s="152" t="n"/>
+      <c r="AR32" s="152" t="n"/>
     </row>
     <row r="33" ht="40" customHeight="1">
       <c r="A33" s="85" t="n"/>
@@ -4051,78 +4068,78 @@
       <c r="D33" s="23" t="n">
         <v>45380</v>
       </c>
-      <c r="E33" s="147" t="n"/>
-      <c r="F33" s="154" t="n"/>
-      <c r="G33" s="155" t="n"/>
-      <c r="H33" s="155" t="n"/>
-      <c r="I33" s="156" t="n"/>
-      <c r="J33" s="155" t="n"/>
-      <c r="K33" s="155" t="n"/>
-      <c r="L33" s="148" t="n"/>
-      <c r="M33" s="152" t="inlineStr">
+      <c r="E33" s="151" t="n"/>
+      <c r="F33" s="147" t="n"/>
+      <c r="G33" s="148" t="n"/>
+      <c r="H33" s="148" t="n"/>
+      <c r="I33" s="158" t="n"/>
+      <c r="J33" s="148" t="n"/>
+      <c r="K33" s="148" t="n"/>
+      <c r="L33" s="152" t="n"/>
+      <c r="M33" s="156" t="inlineStr">
         <is>
           <t>Langues</t>
         </is>
       </c>
-      <c r="N33" s="150" t="n"/>
-      <c r="O33" s="150" t="n"/>
-      <c r="P33" s="150" t="n"/>
-      <c r="Q33" s="162" t="inlineStr">
+      <c r="N33" s="154" t="n"/>
+      <c r="O33" s="154" t="n"/>
+      <c r="P33" s="154" t="n"/>
+      <c r="Q33" s="164" t="inlineStr">
         <is>
           <t>Projet 3A</t>
         </is>
       </c>
-      <c r="R33" s="150" t="n"/>
-      <c r="S33" s="150" t="n"/>
-      <c r="T33" s="150" t="n"/>
-      <c r="U33" s="147" t="n"/>
-      <c r="V33" s="148" t="n"/>
-      <c r="W33" s="163" t="inlineStr">
+      <c r="R33" s="154" t="n"/>
+      <c r="S33" s="154" t="n"/>
+      <c r="T33" s="154" t="n"/>
+      <c r="U33" s="151" t="n"/>
+      <c r="V33" s="152" t="n"/>
+      <c r="W33" s="165" t="inlineStr">
         <is>
           <t>point POK sprint 2
 (FB-FM-LP)
 XXX</t>
         </is>
       </c>
-      <c r="X33" s="150" t="n"/>
-      <c r="Y33" s="164" t="inlineStr">
+      <c r="X33" s="154" t="n"/>
+      <c r="Y33" s="166" t="inlineStr">
         <is>
           <t>prez MON 2
 (FB-FM-LP)
 XXX</t>
         </is>
       </c>
-      <c r="Z33" s="150" t="n"/>
-      <c r="AA33" s="149" t="inlineStr">
+      <c r="Z33" s="154" t="n"/>
+      <c r="AA33" s="153" t="inlineStr">
         <is>
           <t>Débrief
 (FB-FM-LP)
 XXX</t>
         </is>
       </c>
-      <c r="AB33" s="148" t="n"/>
-      <c r="AC33" s="147" t="n"/>
-      <c r="AD33" s="184" t="inlineStr">
+      <c r="AB33" s="152" t="n"/>
+      <c r="AC33" s="151" t="n"/>
+      <c r="AD33" s="188" t="inlineStr">
         <is>
           <t>prez projet
 (FB-FM-LP)
 XXX</t>
         </is>
       </c>
-      <c r="AE33" s="150" t="n"/>
-      <c r="AF33" s="150" t="n"/>
-      <c r="AG33" s="153" t="n"/>
-      <c r="AH33" s="148" t="n"/>
-      <c r="AI33" s="148" t="n"/>
-      <c r="AJ33" s="148" t="n"/>
-      <c r="AK33" s="147" t="n"/>
-      <c r="AL33" s="148" t="n"/>
-      <c r="AM33" s="148" t="n"/>
-      <c r="AN33" s="148" t="n"/>
-      <c r="AO33" s="153" t="n"/>
-      <c r="AP33" s="148" t="n"/>
-      <c r="AQ33" s="148" t="n"/>
-      <c r="AR33" s="148" t="n"/>
+      <c r="AE33" s="154" t="n"/>
+      <c r="AF33" s="154" t="n"/>
+      <c r="AG33" s="157" t="n"/>
+      <c r="AH33" s="152" t="n"/>
+      <c r="AI33" s="152" t="n"/>
+      <c r="AJ33" s="152" t="n"/>
+      <c r="AK33" s="151" t="n"/>
+      <c r="AL33" s="152" t="n"/>
+      <c r="AM33" s="152" t="n"/>
+      <c r="AN33" s="152" t="n"/>
+      <c r="AO33" s="157" t="n"/>
+      <c r="AP33" s="152" t="n"/>
+      <c r="AQ33" s="152" t="n"/>
+      <c r="AR33" s="152" t="n"/>
     </row>
     <row r="34" ht="12.6" customHeight="1">
       <c r="A34" s="38" t="n"/>
@@ -4133,46 +4150,46 @@
       <c r="D34" s="40" t="n">
         <v>45021</v>
       </c>
-      <c r="E34" s="185" t="n"/>
-      <c r="F34" s="155" t="n"/>
-      <c r="G34" s="155" t="n"/>
-      <c r="H34" s="155" t="n"/>
-      <c r="I34" s="186" t="n"/>
-      <c r="J34" s="155" t="n"/>
-      <c r="K34" s="155" t="n"/>
-      <c r="L34" s="155" t="n"/>
-      <c r="M34" s="187" t="n"/>
-      <c r="N34" s="155" t="n"/>
-      <c r="O34" s="155" t="n"/>
-      <c r="P34" s="155" t="n"/>
-      <c r="Q34" s="186" t="n"/>
-      <c r="R34" s="155" t="n"/>
-      <c r="S34" s="155" t="n"/>
-      <c r="T34" s="155" t="n"/>
-      <c r="U34" s="187" t="n"/>
-      <c r="V34" s="155" t="n"/>
-      <c r="W34" s="155" t="n"/>
-      <c r="X34" s="155" t="n"/>
-      <c r="Y34" s="186" t="n"/>
-      <c r="Z34" s="155" t="n"/>
-      <c r="AA34" s="155" t="n"/>
-      <c r="AB34" s="155" t="n"/>
-      <c r="AC34" s="187" t="n"/>
-      <c r="AD34" s="155" t="n"/>
-      <c r="AE34" s="155" t="n"/>
-      <c r="AF34" s="155" t="n"/>
-      <c r="AG34" s="186" t="n"/>
-      <c r="AH34" s="155" t="n"/>
-      <c r="AI34" s="155" t="n"/>
-      <c r="AJ34" s="155" t="n"/>
-      <c r="AK34" s="187" t="n"/>
-      <c r="AL34" s="155" t="n"/>
-      <c r="AM34" s="155" t="n"/>
-      <c r="AN34" s="155" t="n"/>
-      <c r="AO34" s="186" t="n"/>
-      <c r="AP34" s="155" t="n"/>
-      <c r="AQ34" s="155" t="n"/>
-      <c r="AR34" s="155" t="n"/>
+      <c r="E34" s="189" t="n"/>
+      <c r="F34" s="148" t="n"/>
+      <c r="G34" s="148" t="n"/>
+      <c r="H34" s="148" t="n"/>
+      <c r="I34" s="190" t="n"/>
+      <c r="J34" s="148" t="n"/>
+      <c r="K34" s="148" t="n"/>
+      <c r="L34" s="148" t="n"/>
+      <c r="M34" s="191" t="n"/>
+      <c r="N34" s="148" t="n"/>
+      <c r="O34" s="148" t="n"/>
+      <c r="P34" s="148" t="n"/>
+      <c r="Q34" s="190" t="n"/>
+      <c r="R34" s="148" t="n"/>
+      <c r="S34" s="148" t="n"/>
+      <c r="T34" s="148" t="n"/>
+      <c r="U34" s="191" t="n"/>
+      <c r="V34" s="148" t="n"/>
+      <c r="W34" s="148" t="n"/>
+      <c r="X34" s="148" t="n"/>
+      <c r="Y34" s="190" t="n"/>
+      <c r="Z34" s="148" t="n"/>
+      <c r="AA34" s="148" t="n"/>
+      <c r="AB34" s="148" t="n"/>
+      <c r="AC34" s="191" t="n"/>
+      <c r="AD34" s="148" t="n"/>
+      <c r="AE34" s="148" t="n"/>
+      <c r="AF34" s="148" t="n"/>
+      <c r="AG34" s="190" t="n"/>
+      <c r="AH34" s="148" t="n"/>
+      <c r="AI34" s="148" t="n"/>
+      <c r="AJ34" s="148" t="n"/>
+      <c r="AK34" s="191" t="n"/>
+      <c r="AL34" s="148" t="n"/>
+      <c r="AM34" s="148" t="n"/>
+      <c r="AN34" s="148" t="n"/>
+      <c r="AO34" s="190" t="n"/>
+      <c r="AP34" s="148" t="n"/>
+      <c r="AQ34" s="148" t="n"/>
+      <c r="AR34" s="148" t="n"/>
     </row>
     <row r="35" ht="12.6" customHeight="1">
       <c r="C35" s="41" t="n"/>
@@ -20592,6 +20609,7 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="M23:P23"/>
+    <mergeCell ref="AO29:AQ29"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="Q7:T7"/>
@@ -20599,13 +20617,13 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="AO31:AQ31"/>
     <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AD22:AF22"/>
     <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="AL29:AN29"/>
     <mergeCell ref="E24:AR24"/>
     <mergeCell ref="M10:P10"/>
     <mergeCell ref="AL31:AN31"/>
     <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AD29:AF29"/>
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="V23:X23"/>
     <mergeCell ref="E19:AR19"/>
@@ -20623,7 +20641,6 @@
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="Q17:T17"/>
     <mergeCell ref="E11:AR11"/>
-    <mergeCell ref="Y22:AA22"/>
     <mergeCell ref="A15:A26"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="W7:X7"/>
@@ -20698,12 +20715,12 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="AK1:AR1"/>
     <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="AG29:AI29"/>
     <mergeCell ref="AD33:AF33"/>
     <mergeCell ref="AK5:AN5"/>
     <mergeCell ref="M22:P22"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="W29:X29"/>
-    <mergeCell ref="AG22:AI22"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="AG31:AI31"/>
     <mergeCell ref="M15:P15"/>
